--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358871.5981626326</v>
+        <v>354712.2654598687</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19700561.9341936</v>
+        <v>17162042.72867488</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6550715.067199316</v>
+        <v>4384017.194692268</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6347709.468836362</v>
+        <v>7152700.044474372</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>99.49766132051545</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>126.0487557643467</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.952014352242704</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -879,10 +879,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>256.8748689665225</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>99.76095105070239</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>92.38090300811169</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>121.8235736002272</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>190.8945704214143</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>157.5104923116753</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>5.041219488028628</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>282.8768154029415</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>89.72342716134048</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399333</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>260.4446813871647</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>216.8279842959718</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1669,13 +1669,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.5447431252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>260.4446813871647</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>404.5578619233385</v>
       </c>
       <c r="G17" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>285.7122430338547</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6996702193238</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>163.0445286867005</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>152.0420233310595</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>161.4284329972273</v>
+        <v>75.84102227313745</v>
       </c>
       <c r="T19" t="n">
         <v>239.1884404287796</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>399.3995456585952</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>67.12152863805483</v>
       </c>
       <c r="T20" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>256.7712053246095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>71.60506467971082</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T21" t="n">
         <v>138.5285367888426</v>
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.1924286780001</v>
+        <v>50.46457862754139</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T22" t="n">
-        <v>237.5195424011446</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U22" t="n">
         <v>277.3606783057509</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.9031470471935</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T23" t="n">
         <v>214.7935231211468</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>71.60506467971082</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T24" t="n">
         <v>138.5285367888426</v>
@@ -2478,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>26.85680619338071</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>107.5646166618483</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I25" t="n">
-        <v>86.68250837722753</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868333</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2611,16 +2611,16 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U26" t="n">
-        <v>247.1715427105655</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2721,13 +2721,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>26.85680619338071</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>23.73911540193255</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.7844152484321</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T28" t="n">
         <v>239.1884404287796</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>121.744396158081</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.90314704719351</v>
       </c>
       <c r="T29" t="n">
         <v>214.7935231211468</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1924286780001</v>
+        <v>23.73911540193283</v>
       </c>
       <c r="H31" t="n">
         <v>138.7844152484321</v>
@@ -3006,7 +3006,7 @@
         <v>239.1884404287796</v>
       </c>
       <c r="U31" t="n">
-        <v>136.9073650296838</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3034,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>361.6667203605034</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>399.3995456585952</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.095097653137568</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.095097653137582</v>
       </c>
       <c r="S34" t="n">
         <v>161.4284329972273</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>288.8327249576611</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.90314704719353</v>
+        <v>82.90314704719351</v>
       </c>
       <c r="T35" t="n">
         <v>214.7935231211468</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.7844152484321</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>23.73911540193291</v>
       </c>
       <c r="T37" t="n">
         <v>239.1884404287796</v>
       </c>
       <c r="U37" t="n">
-        <v>136.9073650296838</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>217.9860711269679</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.90314704719351</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U38" t="n">
         <v>255.6996702193238</v>
@@ -3565,7 +3565,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>160.0147071168619</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.7747145484141</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U40" t="n">
         <v>277.3606783057509</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>329.7587779550278</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3757,7 +3757,7 @@
         <v>399.3995456585952</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>18.0420588647291</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>7.155506465010571</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3912,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1924286780001</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.095097653137582</v>
       </c>
       <c r="S43" t="n">
         <v>161.4284329972273</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H44" t="n">
-        <v>276.8819053984114</v>
+        <v>285.7122430338547</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.25502607878988</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.0191007606778</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6306916267852</v>
+        <v>255.6996702193238</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>314.7298541121252</v>
       </c>
       <c r="Y44" t="n">
-        <v>18.25767950258984</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.17242930713002</v>
+        <v>92.63376431607153</v>
       </c>
       <c r="H45" t="n">
-        <v>43.75613899001836</v>
+        <v>48.21166394479565</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.03596922853836</v>
+        <v>71.60506467971084</v>
       </c>
       <c r="T45" t="n">
-        <v>136.6690329589423</v>
+        <v>138.5285367888426</v>
       </c>
       <c r="U45" t="n">
-        <v>182.858619069728</v>
+        <v>182.8889700571583</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8056609037509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.3456981282891</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.05134658435112</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.10364887852919</v>
+        <v>1.095097653137582</v>
       </c>
       <c r="S46" t="n">
-        <v>154.688125513266</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T46" t="n">
-        <v>237.535887211533</v>
+        <v>239.1884404287796</v>
       </c>
       <c r="U46" t="n">
-        <v>277.339581881701</v>
+        <v>277.3606783057509</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>571.9016432384883</v>
+        <v>804.1642048184415</v>
       </c>
       <c r="C2" t="n">
-        <v>145.0009132517884</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N2" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X2" t="n">
-        <v>991.7500075300184</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.7500075300184</v>
+        <v>1224.012569109972</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>526.524026367945</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C4" t="n">
-        <v>354.551463246861</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="D4" t="n">
-        <v>354.551463246861</v>
+        <v>152.2991310385096</v>
       </c>
       <c r="E4" t="n">
-        <v>354.551463246861</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W4" t="n">
-        <v>943.0327633902687</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X4" t="n">
-        <v>943.0327633902687</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y4" t="n">
-        <v>716.6899950800107</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.0056192934842</v>
+        <v>549.6059248847508</v>
       </c>
       <c r="C5" t="n">
-        <v>561.1048893067843</v>
+        <v>549.6059248847508</v>
       </c>
       <c r="D5" t="n">
-        <v>137.8122684917846</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="E5" t="n">
-        <v>137.8122684917846</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F5" t="n">
-        <v>137.8122684917846</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>137.8122684917846</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.191253630124</v>
+        <v>954.9431949298605</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.853983585014</v>
+        <v>549.6059248847508</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>316.1957143288386</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>316.1957143288386</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="M6" t="n">
-        <v>316.1957143288386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N6" t="n">
-        <v>316.1957143288386</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>505.7818726238037</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>333.8093095027197</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>2007.737591668684</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>2007.737591668684</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1813.191253630124</v>
+        <v>1320.668515703089</v>
       </c>
       <c r="C8" t="n">
-        <v>1386.290523643424</v>
+        <v>893.7677857163897</v>
       </c>
       <c r="D8" t="n">
-        <v>1386.290523643424</v>
+        <v>470.47516490139</v>
       </c>
       <c r="E8" t="n">
-        <v>960.3135837912815</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F8" t="n">
-        <v>535.1894019806817</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.191253630124</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1813.191253630124</v>
+        <v>1740.51687999462</v>
       </c>
     </row>
     <row r="9">
@@ -4889,22 +4889,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>897.3758948880899</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="C11" t="n">
-        <v>470.47516490139</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="D11" t="n">
-        <v>470.47516490139</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="E11" t="n">
-        <v>44.49822504924753</v>
+        <v>628.1007605478809</v>
       </c>
       <c r="F11" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H11" t="n">
         <v>44.49822504924753</v>
@@ -5041,52 +5041,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K11" t="n">
-        <v>957.7672188505812</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L11" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="M11" t="n">
-        <v>1651.269438076291</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N11" t="n">
-        <v>1651.269438076291</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.269438076291</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V11" t="n">
-        <v>2224.911252462377</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W11" t="n">
-        <v>2134.281528056982</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X11" t="n">
-        <v>1722.561529224729</v>
+        <v>1054.077700400023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1317.22425917962</v>
+        <v>1054.077700400023</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K12" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L12" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="M12" t="n">
-        <v>751.8547856608809</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N12" t="n">
-        <v>751.8547856608809</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P12" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
         <v>1853.185855629757</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1027.91077931376</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C13" t="n">
-        <v>855.9382161926764</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="D13" t="n">
-        <v>692.6214433194471</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="E13" t="n">
-        <v>526.4132374723006</v>
+        <v>143.6433407906549</v>
       </c>
       <c r="F13" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J13" t="n">
-        <v>101.9895532734056</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K13" t="n">
         <v>328.5171544792433</v>
@@ -5226,25 +5226,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S13" t="n">
-        <v>2224.911252462377</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>2224.911252462377</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U13" t="n">
-        <v>2224.911252462377</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V13" t="n">
-        <v>1961.835816717766</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>1686.983412890279</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X13" t="n">
-        <v>1444.419516336084</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y13" t="n">
-        <v>1218.076748025826</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>471.3989550359474</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="C14" t="n">
-        <v>44.49822504924753</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="D14" t="n">
-        <v>44.49822504924753</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="E14" t="n">
-        <v>44.49822504924753</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F14" t="n">
-        <v>44.49822504924753</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
         <v>44.49822504924753</v>
@@ -5284,16 +5284,16 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>1651.269438076291</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
         <v>1651.269438076291</v>
@@ -5305,25 +5305,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T14" t="n">
-        <v>2003.98568150701</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U14" t="n">
-        <v>1745.630772103422</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V14" t="n">
-        <v>1388.141357229671</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W14" t="n">
-        <v>991.7500075300184</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X14" t="n">
-        <v>580.0300086977657</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y14" t="n">
-        <v>471.3989550359474</v>
+        <v>1092.979635225926</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L15" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M15" t="n">
-        <v>669.8354755761777</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N15" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O15" t="n">
-        <v>1771.166545545054</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
         <v>1771.166545545054</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1027.91077931376</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C16" t="n">
-        <v>855.9382161926764</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D16" t="n">
-        <v>692.6214433194471</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E16" t="n">
-        <v>526.4132374723006</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F16" t="n">
-        <v>354.551463246861</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G16" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
         <v>44.49822504924753</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462377</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462377</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462377</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V16" t="n">
-        <v>1961.835816717766</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W16" t="n">
-        <v>1686.983412890279</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X16" t="n">
-        <v>1444.419516336084</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y16" t="n">
-        <v>1218.076748025826</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>744.5816565237928</v>
+        <v>1599.98542779493</v>
       </c>
       <c r="C17" t="n">
-        <v>744.5816565237928</v>
+        <v>1173.08469780823</v>
       </c>
       <c r="D17" t="n">
-        <v>744.5816565237928</v>
+        <v>749.7920769932305</v>
       </c>
       <c r="E17" t="n">
-        <v>744.5816565237928</v>
+        <v>749.7920769932305</v>
       </c>
       <c r="F17" t="n">
-        <v>744.5816565237928</v>
+        <v>341.1477720201613</v>
       </c>
       <c r="G17" t="n">
         <v>341.1477720201613</v>
@@ -5515,52 +5515,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J17" t="n">
-        <v>490.4500146445652</v>
+        <v>98.72079593693901</v>
       </c>
       <c r="K17" t="n">
-        <v>567.8937577539346</v>
+        <v>749.0214367632509</v>
       </c>
       <c r="L17" t="n">
-        <v>669.9661054272267</v>
+        <v>1042.953553011651</v>
       </c>
       <c r="M17" t="n">
-        <v>788.687543034281</v>
+        <v>1693.254193837963</v>
       </c>
       <c r="N17" t="n">
-        <v>1438.988183860593</v>
+        <v>2343.554834664275</v>
       </c>
       <c r="O17" t="n">
-        <v>1551.448433510792</v>
+        <v>2456.015084314474</v>
       </c>
       <c r="P17" t="n">
-        <v>1902.303327251021</v>
+        <v>2546.390892891507</v>
       </c>
       <c r="Q17" t="n">
-        <v>2454.19263174025</v>
+        <v>2606.431290018001</v>
       </c>
       <c r="R17" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S17" t="n">
-        <v>2543.736784099045</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="T17" t="n">
-        <v>2326.773629431219</v>
+        <v>2627.477336671967</v>
       </c>
       <c r="U17" t="n">
-        <v>2068.491134260185</v>
+        <v>2369.194841500933</v>
       </c>
       <c r="V17" t="n">
-        <v>1711.001719386435</v>
+        <v>2011.705426627183</v>
       </c>
       <c r="W17" t="n">
-        <v>1314.610369686782</v>
+        <v>2011.705426627183</v>
       </c>
       <c r="X17" t="n">
-        <v>1149.918926568902</v>
+        <v>1599.98542779493</v>
       </c>
       <c r="Y17" t="n">
-        <v>744.5816565237928</v>
+        <v>1599.98542779493</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I18" t="n">
-        <v>52.88186258107764</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J18" t="n">
-        <v>369.4257346410393</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K18" t="n">
-        <v>423.9001043444471</v>
+        <v>874.7304088569099</v>
       </c>
       <c r="L18" t="n">
-        <v>504.6750299031555</v>
+        <v>955.5053344156182</v>
       </c>
       <c r="M18" t="n">
-        <v>602.0810492010576</v>
+        <v>1052.91135371352</v>
       </c>
       <c r="N18" t="n">
-        <v>704.4065207879278</v>
+        <v>1155.236825300391</v>
       </c>
       <c r="O18" t="n">
-        <v>1139.778423894155</v>
+        <v>1245.233924179061</v>
       </c>
       <c r="P18" t="n">
-        <v>1208.867406764147</v>
+        <v>1314.322907049052</v>
       </c>
       <c r="Q18" t="n">
-        <v>1733.604737507429</v>
+        <v>1839.060237792334</v>
       </c>
       <c r="R18" t="n">
         <v>1845.095538917461</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>969.5789186001268</v>
+        <v>813.4669520702655</v>
       </c>
       <c r="C19" t="n">
-        <v>797.6063554790428</v>
+        <v>641.4943889491815</v>
       </c>
       <c r="D19" t="n">
-        <v>644.0285541345382</v>
+        <v>478.1776160759522</v>
       </c>
       <c r="E19" t="n">
-        <v>477.8203482873918</v>
+        <v>311.9694102288057</v>
       </c>
       <c r="F19" t="n">
-        <v>305.9585740619522</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="G19" t="n">
         <v>140.1076360033662</v>
@@ -5676,7 +5676,7 @@
         <v>138.1760543079874</v>
       </c>
       <c r="K19" t="n">
-        <v>410.938397972097</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L19" t="n">
         <v>824.7922715484103</v>
@@ -5691,34 +5691,34 @@
         <v>2128.424533910869</v>
       </c>
       <c r="P19" t="n">
-        <v>2467.154185086671</v>
+        <v>2467.154185086672</v>
       </c>
       <c r="Q19" t="n">
-        <v>2627.477336671967</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="R19" t="n">
-        <v>2627.477336671967</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="S19" t="n">
-        <v>2464.418313442445</v>
+        <v>2550.870243466778</v>
       </c>
       <c r="T19" t="n">
-        <v>2222.813828160849</v>
+        <v>2309.265758185183</v>
       </c>
       <c r="U19" t="n">
-        <v>1942.651526841909</v>
+        <v>2029.103456866242</v>
       </c>
       <c r="V19" t="n">
-        <v>1660.940059449938</v>
+        <v>1747.391989474271</v>
       </c>
       <c r="W19" t="n">
-        <v>1386.08765562245</v>
+        <v>1472.539585646784</v>
       </c>
       <c r="X19" t="n">
-        <v>1386.08765562245</v>
+        <v>1229.975689092589</v>
       </c>
       <c r="Y19" t="n">
-        <v>1159.744887312193</v>
+        <v>1003.632920782331</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1731.30096384937</v>
+        <v>1330.551398382881</v>
       </c>
       <c r="C20" t="n">
-        <v>1304.40023386267</v>
+        <v>903.6506683961816</v>
       </c>
       <c r="D20" t="n">
-        <v>881.1076130476706</v>
+        <v>903.6506683961816</v>
       </c>
       <c r="E20" t="n">
-        <v>881.1076130476706</v>
+        <v>477.6737285440391</v>
       </c>
       <c r="F20" t="n">
-        <v>455.9834312370709</v>
+        <v>52.54954673343935</v>
       </c>
       <c r="G20" t="n">
         <v>52.54954673343935</v>
@@ -5752,52 +5752,52 @@
         <v>52.54954673343935</v>
       </c>
       <c r="J20" t="n">
-        <v>490.4500146445653</v>
+        <v>98.72079593693901</v>
       </c>
       <c r="K20" t="n">
-        <v>1140.750655470877</v>
+        <v>749.0214367632509</v>
       </c>
       <c r="L20" t="n">
-        <v>1459.353612968195</v>
+        <v>1399.322077589563</v>
       </c>
       <c r="M20" t="n">
-        <v>1578.07505057525</v>
+        <v>1518.043515196617</v>
       </c>
       <c r="N20" t="n">
-        <v>1699.467269023788</v>
+        <v>1639.435733645156</v>
       </c>
       <c r="O20" t="n">
-        <v>1811.927518673988</v>
+        <v>1896.090252065195</v>
       </c>
       <c r="P20" t="n">
-        <v>1902.303327251021</v>
+        <v>2546.390892891507</v>
       </c>
       <c r="Q20" t="n">
-        <v>2454.19263174025</v>
+        <v>2606.431290018001</v>
       </c>
       <c r="R20" t="n">
         <v>2627.477336671967</v>
       </c>
       <c r="S20" t="n">
-        <v>2627.477336671967</v>
+        <v>2559.677812795144</v>
       </c>
       <c r="T20" t="n">
-        <v>2410.514182004142</v>
+        <v>2342.714658127319</v>
       </c>
       <c r="U20" t="n">
-        <v>2410.514182004142</v>
+        <v>2084.432162956285</v>
       </c>
       <c r="V20" t="n">
-        <v>2410.514182004142</v>
+        <v>1726.942748082535</v>
       </c>
       <c r="W20" t="n">
-        <v>2410.514182004142</v>
+        <v>1330.551398382881</v>
       </c>
       <c r="X20" t="n">
-        <v>2410.514182004142</v>
+        <v>1330.551398382881</v>
       </c>
       <c r="Y20" t="n">
-        <v>2151.1493281409</v>
+        <v>1330.551398382881</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>52.54954673343935</v>
       </c>
       <c r="I21" t="n">
-        <v>76.3391684254895</v>
+        <v>76.33916842548948</v>
       </c>
       <c r="J21" t="n">
-        <v>392.8830404854512</v>
+        <v>392.8830404854511</v>
       </c>
       <c r="K21" t="n">
-        <v>447.3574101888591</v>
+        <v>780.1837956694578</v>
       </c>
       <c r="L21" t="n">
-        <v>955.5053344156174</v>
+        <v>860.9587212281662</v>
       </c>
       <c r="M21" t="n">
-        <v>1052.91135371352</v>
+        <v>958.3647405260683</v>
       </c>
       <c r="N21" t="n">
-        <v>1155.23682530039</v>
+        <v>1060.690212112939</v>
       </c>
       <c r="O21" t="n">
-        <v>1245.233924179061</v>
+        <v>1150.687310991609</v>
       </c>
       <c r="P21" t="n">
-        <v>1314.322907049052</v>
+        <v>1800.98795181792</v>
       </c>
       <c r="Q21" t="n">
         <v>1839.060237792334</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>891.7598008589247</v>
+        <v>698.2330680691205</v>
       </c>
       <c r="C22" t="n">
-        <v>719.7872377378407</v>
+        <v>526.2605049480364</v>
       </c>
       <c r="D22" t="n">
-        <v>556.4704648646114</v>
+        <v>362.9437320748071</v>
       </c>
       <c r="E22" t="n">
-        <v>390.2622590174649</v>
+        <v>362.9437320748071</v>
       </c>
       <c r="F22" t="n">
-        <v>218.4004847920253</v>
+        <v>191.0819578493676</v>
       </c>
       <c r="G22" t="n">
-        <v>52.54954673343935</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="H22" t="n">
-        <v>52.54954673343935</v>
+        <v>140.1076360033662</v>
       </c>
       <c r="I22" t="n">
         <v>52.54954673343935</v>
@@ -5913,7 +5913,7 @@
         <v>138.1760543079874</v>
       </c>
       <c r="K22" t="n">
-        <v>410.938397972097</v>
+        <v>410.9383979720969</v>
       </c>
       <c r="L22" t="n">
         <v>824.7922715484103</v>
@@ -5928,34 +5928,34 @@
         <v>2128.424533910869</v>
       </c>
       <c r="P22" t="n">
-        <v>2467.154185086671</v>
+        <v>2467.154185086672</v>
       </c>
       <c r="Q22" t="n">
-        <v>2627.477336671967</v>
+        <v>2627.477336671968</v>
       </c>
       <c r="R22" t="n">
-        <v>2627.477336671967</v>
+        <v>2598.695382695156</v>
       </c>
       <c r="S22" t="n">
-        <v>2627.477336671967</v>
+        <v>2435.636359465633</v>
       </c>
       <c r="T22" t="n">
-        <v>2387.558606973842</v>
+        <v>2194.031874184037</v>
       </c>
       <c r="U22" t="n">
-        <v>2107.396305654901</v>
+        <v>1913.869572865097</v>
       </c>
       <c r="V22" t="n">
-        <v>1825.68483826293</v>
+        <v>1632.158105473126</v>
       </c>
       <c r="W22" t="n">
-        <v>1550.832434435443</v>
+        <v>1357.305701645639</v>
       </c>
       <c r="X22" t="n">
-        <v>1308.268537881248</v>
+        <v>1114.741805091444</v>
       </c>
       <c r="Y22" t="n">
-        <v>1081.92576957099</v>
+        <v>888.3990367811862</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1218.035866752155</v>
       </c>
       <c r="F23" t="n">
-        <v>792.9116849415553</v>
+        <v>792.9116849415545</v>
       </c>
       <c r="G23" t="n">
-        <v>389.4778004379235</v>
+        <v>389.4778004379232</v>
       </c>
       <c r="H23" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="I23" t="n">
-        <v>100.8795751512015</v>
+        <v>100.8795751512016</v>
       </c>
       <c r="J23" t="n">
         <v>538.7800430623274</v>
@@ -5998,28 +5998,28 @@
         <v>2436.765366234923</v>
       </c>
       <c r="M23" t="n">
-        <v>2591.105793820017</v>
+        <v>3596.829855531472</v>
       </c>
       <c r="N23" t="n">
-        <v>3725.655897361357</v>
+        <v>3718.222073980011</v>
       </c>
       <c r="O23" t="n">
-        <v>4720.277846924832</v>
+        <v>3830.68232363021</v>
       </c>
       <c r="P23" t="n">
-        <v>4810.653655501866</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q23" t="n">
-        <v>4870.69405262836</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R23" t="n">
-        <v>5043.978757560077</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S23" t="n">
-        <v>4960.238204987153</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T23" t="n">
-        <v>4743.275050319328</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U23" t="n">
         <v>4484.992555148294</v>
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>662.8413105169817</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C24" t="n">
-        <v>545.3354070344865</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D24" t="n">
-        <v>441.4954485497715</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E24" t="n">
-        <v>336.7935148227087</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F24" t="n">
-        <v>243.1476845056129</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G24" t="n">
-        <v>149.5782256004901</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H24" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="I24" t="n">
-        <v>124.6691968432517</v>
+        <v>124.6691968432516</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1105764336223</v>
+        <v>441.2130689032133</v>
       </c>
       <c r="K24" t="n">
-        <v>203.5849461370302</v>
+        <v>923.060437274672</v>
       </c>
       <c r="L24" t="n">
-        <v>284.3598716957387</v>
+        <v>1003.83536283338</v>
       </c>
       <c r="M24" t="n">
-        <v>1460.618241676891</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.776398202115</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O24" t="n">
-        <v>1674.773497080785</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P24" t="n">
-        <v>1743.862479950777</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q24" t="n">
-        <v>1781.934765925191</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R24" t="n">
-        <v>1893.425567335224</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S24" t="n">
-        <v>1821.0972191739</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T24" t="n">
-        <v>1681.169404235675</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U24" t="n">
-        <v>1496.433070844606</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V24" t="n">
         <v>1291.459931983872</v>
@@ -6110,10 +6110,10 @@
         <v>1094.938554817089</v>
       </c>
       <c r="X24" t="n">
-        <v>931.4612085837521</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y24" t="n">
-        <v>791.7683199370445</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="25">
@@ -6126,34 +6126,34 @@
         <v>775.3450504636946</v>
       </c>
       <c r="C25" t="n">
-        <v>775.3450504636946</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D25" t="n">
-        <v>775.3450504636946</v>
+        <v>440.0557144693813</v>
       </c>
       <c r="E25" t="n">
-        <v>609.1368446165482</v>
+        <v>412.9276274053604</v>
       </c>
       <c r="F25" t="n">
-        <v>437.2750703911086</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="G25" t="n">
-        <v>328.6239424498477</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H25" t="n">
-        <v>188.4376644211283</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I25" t="n">
         <v>100.8795751512015</v>
       </c>
       <c r="J25" t="n">
-        <v>186.5060827257496</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K25" t="n">
-        <v>459.2684263898592</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L25" t="n">
-        <v>873.1222999661726</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M25" t="n">
         <v>1326.688819835327</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2461.674251326241</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C26" t="n">
-        <v>2034.773521339541</v>
+        <v>2067.305427419297</v>
       </c>
       <c r="D26" t="n">
-        <v>1611.480900524541</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E26" t="n">
-        <v>1185.503960672399</v>
+        <v>1218.035866752155</v>
       </c>
       <c r="F26" t="n">
-        <v>760.3797788617987</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G26" t="n">
-        <v>356.9458943581672</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H26" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I26" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J26" t="n">
-        <v>114.518918274945</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K26" t="n">
-        <v>191.9626613843143</v>
+        <v>1285.222872104627</v>
       </c>
       <c r="L26" t="n">
-        <v>708.5139869373647</v>
+        <v>1387.295219777919</v>
       </c>
       <c r="M26" t="n">
-        <v>1554.3163916965</v>
+        <v>1506.016657384974</v>
       </c>
       <c r="N26" t="n">
-        <v>2400.118796455636</v>
+        <v>2640.566760926315</v>
       </c>
       <c r="O26" t="n">
-        <v>3245.921201214772</v>
+        <v>3635.18871048979</v>
       </c>
       <c r="P26" t="n">
-        <v>3336.297009791805</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q26" t="n">
-        <v>3396.337406918299</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R26" t="n">
-        <v>3417.383453572265</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S26" t="n">
-        <v>3333.642900999343</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T26" t="n">
-        <v>3116.679746331517</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U26" t="n">
-        <v>2867.01152137135</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V26" t="n">
-        <v>2867.01152137135</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W26" t="n">
-        <v>2867.01152137135</v>
+        <v>3731.11179057489</v>
       </c>
       <c r="X26" t="n">
-        <v>2867.01152137135</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y26" t="n">
-        <v>2461.674251326241</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>630.3094044372255</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C27" t="n">
-        <v>512.8035009547302</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D27" t="n">
-        <v>408.9635424700152</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E27" t="n">
-        <v>304.2616087429524</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F27" t="n">
-        <v>210.6157784258566</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G27" t="n">
-        <v>117.0463195207338</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H27" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I27" t="n">
-        <v>92.13729076349543</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J27" t="n">
-        <v>408.681162823457</v>
+        <v>125.6532705892103</v>
       </c>
       <c r="K27" t="n">
-        <v>1075.815700590204</v>
+        <v>671.9746322122614</v>
       </c>
       <c r="L27" t="n">
-        <v>1352.513001237587</v>
+        <v>752.7495577709699</v>
       </c>
       <c r="M27" t="n">
-        <v>1449.919020535489</v>
+        <v>850.155577068872</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.244492122359</v>
+        <v>952.4810486557423</v>
       </c>
       <c r="O27" t="n">
-        <v>1642.241591001029</v>
+        <v>1042.478147534413</v>
       </c>
       <c r="P27" t="n">
-        <v>1711.330573871021</v>
+        <v>1849.317980235683</v>
       </c>
       <c r="Q27" t="n">
-        <v>1749.402859845435</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R27" t="n">
-        <v>1860.893661255467</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S27" t="n">
-        <v>1788.565313094143</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T27" t="n">
-        <v>1648.637498155918</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U27" t="n">
-        <v>1463.901164764849</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V27" t="n">
-        <v>1258.928025904116</v>
+        <v>1291.459931983872</v>
       </c>
       <c r="W27" t="n">
-        <v>1062.406648737333</v>
+        <v>1094.938554817089</v>
       </c>
       <c r="X27" t="n">
-        <v>898.9293025039958</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y27" t="n">
-        <v>759.2364138572882</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>905.8721676134605</v>
+        <v>775.3450504636946</v>
       </c>
       <c r="C28" t="n">
-        <v>733.8996044923765</v>
+        <v>603.3724873426106</v>
       </c>
       <c r="D28" t="n">
-        <v>570.5828316191472</v>
+        <v>440.0557144693813</v>
       </c>
       <c r="E28" t="n">
-        <v>404.3746257720007</v>
+        <v>412.9276274053604</v>
       </c>
       <c r="F28" t="n">
-        <v>232.5128515465612</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="G28" t="n">
-        <v>208.5339471001647</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H28" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I28" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J28" t="n">
-        <v>153.9741766459933</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K28" t="n">
-        <v>426.7365203101029</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L28" t="n">
-        <v>840.5903938864162</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M28" t="n">
-        <v>1294.156913755571</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N28" t="n">
-        <v>1732.54587532019</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O28" t="n">
-        <v>2144.222656248875</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P28" t="n">
-        <v>2482.952307424677</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q28" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R28" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S28" t="n">
-        <v>2643.275459009973</v>
+        <v>2512.748341860207</v>
       </c>
       <c r="T28" t="n">
-        <v>2401.670973728378</v>
+        <v>2271.143856578612</v>
       </c>
       <c r="U28" t="n">
-        <v>2121.508672409437</v>
+        <v>1990.981555259671</v>
       </c>
       <c r="V28" t="n">
-        <v>1839.797205017466</v>
+        <v>1709.2700878677</v>
       </c>
       <c r="W28" t="n">
-        <v>1564.944801189979</v>
+        <v>1434.417684040213</v>
       </c>
       <c r="X28" t="n">
-        <v>1322.380904635784</v>
+        <v>1191.853787486018</v>
       </c>
       <c r="Y28" t="n">
-        <v>1096.038136325526</v>
+        <v>965.5110191757603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2461.674251326241</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C29" t="n">
-        <v>2034.773521339541</v>
+        <v>2067.305427419297</v>
       </c>
       <c r="D29" t="n">
-        <v>1611.480900524541</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E29" t="n">
-        <v>1185.503960672399</v>
+        <v>1218.035866752155</v>
       </c>
       <c r="F29" t="n">
-        <v>760.3797788617987</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G29" t="n">
-        <v>356.9458943581672</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H29" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I29" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J29" t="n">
-        <v>114.518918274945</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K29" t="n">
-        <v>942.8779241466747</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L29" t="n">
-        <v>1788.68032890581</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M29" t="n">
-        <v>1907.401766512864</v>
+        <v>3112.414771550082</v>
       </c>
       <c r="N29" t="n">
-        <v>2028.793984961403</v>
+        <v>3233.80698999862</v>
       </c>
       <c r="O29" t="n">
-        <v>2601.833635574286</v>
+        <v>4228.428939562095</v>
       </c>
       <c r="P29" t="n">
-        <v>2692.209444151319</v>
+        <v>4318.804748139129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3244.098748640548</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R29" t="n">
-        <v>3417.383453572265</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S29" t="n">
-        <v>3417.383453572265</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T29" t="n">
-        <v>3200.42029890444</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U29" t="n">
-        <v>2942.137803733406</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V29" t="n">
-        <v>2584.648388859656</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W29" t="n">
-        <v>2584.648388859656</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X29" t="n">
-        <v>2584.648388859656</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y29" t="n">
-        <v>2584.648388859656</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>630.3094044372255</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C30" t="n">
-        <v>512.8035009547302</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D30" t="n">
-        <v>408.9635424700152</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E30" t="n">
-        <v>304.2616087429524</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F30" t="n">
-        <v>210.6157784258566</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G30" t="n">
-        <v>117.0463195207338</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H30" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I30" t="n">
-        <v>92.13729076349543</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J30" t="n">
-        <v>408.681162823457</v>
+        <v>417.7557630588014</v>
       </c>
       <c r="K30" t="n">
-        <v>785.0730309100104</v>
+        <v>923.060437274672</v>
       </c>
       <c r="L30" t="n">
-        <v>865.8479564687187</v>
+        <v>1003.83536283338</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2539757666209</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N30" t="n">
-        <v>1065.579447353491</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O30" t="n">
-        <v>1155.576546232161</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.665529102153</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q30" t="n">
-        <v>1749.402859845435</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R30" t="n">
-        <v>1860.893661255467</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S30" t="n">
-        <v>1788.565313094143</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T30" t="n">
-        <v>1648.637498155918</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U30" t="n">
-        <v>1463.901164764849</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V30" t="n">
-        <v>1258.928025904116</v>
+        <v>1291.459931983872</v>
       </c>
       <c r="W30" t="n">
-        <v>1062.406648737333</v>
+        <v>1094.938554817089</v>
       </c>
       <c r="X30" t="n">
-        <v>898.9293025039958</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y30" t="n">
-        <v>759.2364138572882</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1047.74420122565</v>
+        <v>938.404073693217</v>
       </c>
       <c r="C31" t="n">
-        <v>875.771638104566</v>
+        <v>766.431510572133</v>
       </c>
       <c r="D31" t="n">
-        <v>712.4548652313367</v>
+        <v>603.1147376989037</v>
       </c>
       <c r="E31" t="n">
-        <v>546.2466593841903</v>
+        <v>436.9065318517572</v>
       </c>
       <c r="F31" t="n">
-        <v>374.3848851587506</v>
+        <v>265.0447576263176</v>
       </c>
       <c r="G31" t="n">
-        <v>208.5339471001647</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H31" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I31" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J31" t="n">
-        <v>153.9741766459933</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K31" t="n">
-        <v>426.7365203101029</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L31" t="n">
-        <v>840.5903938864162</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M31" t="n">
-        <v>1294.156913755571</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N31" t="n">
-        <v>1732.54587532019</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O31" t="n">
-        <v>2144.222656248875</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P31" t="n">
-        <v>2482.952307424677</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q31" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R31" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S31" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="T31" t="n">
-        <v>2401.670973728378</v>
+        <v>2434.202879808134</v>
       </c>
       <c r="U31" t="n">
-        <v>2263.380706021626</v>
+        <v>2154.040578489194</v>
       </c>
       <c r="V31" t="n">
-        <v>1981.669238629655</v>
+        <v>1872.329111097222</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.816834802168</v>
+        <v>1597.476707269735</v>
       </c>
       <c r="X31" t="n">
-        <v>1464.252938247974</v>
+        <v>1354.912810715541</v>
       </c>
       <c r="Y31" t="n">
-        <v>1237.910169937716</v>
+        <v>1128.570042405283</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1264.002203117841</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C32" t="n">
-        <v>837.1014731311409</v>
+        <v>2067.305427419297</v>
       </c>
       <c r="D32" t="n">
-        <v>837.1014731311409</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E32" t="n">
-        <v>471.7815535750768</v>
+        <v>1218.035866752155</v>
       </c>
       <c r="F32" t="n">
-        <v>471.7815535750768</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G32" t="n">
-        <v>68.34766907144531</v>
+        <v>389.4778004379235</v>
       </c>
       <c r="H32" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I32" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J32" t="n">
-        <v>114.518918274945</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K32" t="n">
-        <v>443.8150790094151</v>
+        <v>1367.139048934057</v>
       </c>
       <c r="L32" t="n">
-        <v>1289.617483768551</v>
+        <v>1469.211396607349</v>
       </c>
       <c r="M32" t="n">
-        <v>2135.419888527686</v>
+        <v>2629.275885903899</v>
       </c>
       <c r="N32" t="n">
-        <v>2981.222293286822</v>
+        <v>2750.668104352438</v>
       </c>
       <c r="O32" t="n">
-        <v>3093.682542937021</v>
+        <v>3745.290053915913</v>
       </c>
       <c r="P32" t="n">
-        <v>3184.058351514054</v>
+        <v>4581.144749843003</v>
       </c>
       <c r="Q32" t="n">
-        <v>3244.098748640548</v>
+        <v>4870.694052628358</v>
       </c>
       <c r="R32" t="n">
-        <v>3417.383453572265</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S32" t="n">
-        <v>3333.642900999343</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T32" t="n">
-        <v>3116.679746331517</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U32" t="n">
-        <v>2858.397251160483</v>
+        <v>4484.992555148294</v>
       </c>
       <c r="V32" t="n">
-        <v>2500.907836286733</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W32" t="n">
-        <v>2500.907836286733</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X32" t="n">
-        <v>2089.18783745448</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y32" t="n">
-        <v>1683.850567409371</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>630.3094044372255</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C33" t="n">
-        <v>512.8035009547302</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D33" t="n">
-        <v>408.9635424700152</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E33" t="n">
-        <v>304.2616087429524</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F33" t="n">
-        <v>210.6157784258566</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G33" t="n">
-        <v>117.0463195207338</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H33" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I33" t="n">
-        <v>92.13729076349543</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J33" t="n">
-        <v>408.681162823457</v>
+        <v>125.6532705892103</v>
       </c>
       <c r="K33" t="n">
-        <v>463.1555325268648</v>
+        <v>671.9746322122614</v>
       </c>
       <c r="L33" t="n">
-        <v>543.9304580855733</v>
+        <v>752.7495577709699</v>
       </c>
       <c r="M33" t="n">
-        <v>641.3364773834754</v>
+        <v>850.155577068872</v>
       </c>
       <c r="N33" t="n">
-        <v>1065.579447353491</v>
+        <v>952.4810486557423</v>
       </c>
       <c r="O33" t="n">
-        <v>1155.576546232161</v>
+        <v>1042.478147534413</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.665529102153</v>
+        <v>1849.317980235683</v>
       </c>
       <c r="Q33" t="n">
-        <v>1749.402859845435</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R33" t="n">
-        <v>1860.893661255467</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S33" t="n">
-        <v>1788.565313094143</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T33" t="n">
-        <v>1648.637498155918</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U33" t="n">
-        <v>1463.901164764849</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V33" t="n">
-        <v>1258.928025904116</v>
+        <v>1291.459931983872</v>
       </c>
       <c r="W33" t="n">
-        <v>1062.406648737333</v>
+        <v>1094.938554817089</v>
       </c>
       <c r="X33" t="n">
-        <v>898.9293025039958</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y33" t="n">
-        <v>759.2364138572882</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>742.8131443839382</v>
+        <v>774.2388912181009</v>
       </c>
       <c r="C34" t="n">
-        <v>570.8405812628541</v>
+        <v>602.2663280970169</v>
       </c>
       <c r="D34" t="n">
-        <v>407.5238083896248</v>
+        <v>438.9495552237876</v>
       </c>
       <c r="E34" t="n">
-        <v>241.3156025424784</v>
+        <v>272.7413493766411</v>
       </c>
       <c r="F34" t="n">
-        <v>69.45382831703881</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="G34" t="n">
-        <v>69.45382831703881</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="H34" t="n">
-        <v>69.45382831703881</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I34" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J34" t="n">
-        <v>153.9741766459933</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K34" t="n">
-        <v>426.7365203101029</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L34" t="n">
-        <v>840.5903938864162</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M34" t="n">
-        <v>1294.156913755571</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N34" t="n">
-        <v>1732.54587532019</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O34" t="n">
-        <v>2144.222656248875</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P34" t="n">
-        <v>2482.952307424677</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q34" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R34" t="n">
-        <v>2643.275459009973</v>
+        <v>2674.701205844136</v>
       </c>
       <c r="S34" t="n">
-        <v>2480.216435780451</v>
+        <v>2511.642182614614</v>
       </c>
       <c r="T34" t="n">
-        <v>2238.611950498855</v>
+        <v>2270.037697333018</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.449649179915</v>
+        <v>1989.875396014078</v>
       </c>
       <c r="V34" t="n">
-        <v>1676.738181787944</v>
+        <v>1708.163928622106</v>
       </c>
       <c r="W34" t="n">
-        <v>1401.885777960457</v>
+        <v>1433.311524794619</v>
       </c>
       <c r="X34" t="n">
-        <v>1159.321881406262</v>
+        <v>1190.747628240425</v>
       </c>
       <c r="Y34" t="n">
-        <v>932.9791130960039</v>
+        <v>964.4048599301666</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1903.231127754502</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C35" t="n">
-        <v>1903.231127754502</v>
+        <v>2067.305427419297</v>
       </c>
       <c r="D35" t="n">
-        <v>1611.480900524541</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E35" t="n">
-        <v>1185.503960672399</v>
+        <v>1218.035866752155</v>
       </c>
       <c r="F35" t="n">
-        <v>760.3797788617987</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G35" t="n">
-        <v>356.9458943581672</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H35" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I35" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J35" t="n">
-        <v>506.2481369825711</v>
+        <v>147.0508243547011</v>
       </c>
       <c r="K35" t="n">
-        <v>583.6918800919404</v>
+        <v>975.4098302264308</v>
       </c>
       <c r="L35" t="n">
-        <v>685.7642277652326</v>
+        <v>2045.036147527296</v>
       </c>
       <c r="M35" t="n">
-        <v>1531.566632524368</v>
+        <v>3205.100636823846</v>
       </c>
       <c r="N35" t="n">
-        <v>1652.958850972907</v>
+        <v>4339.650740365188</v>
       </c>
       <c r="O35" t="n">
-        <v>1856.354748224229</v>
+        <v>4872.516505202581</v>
       </c>
       <c r="P35" t="n">
-        <v>2692.209444151319</v>
+        <v>4962.892313779615</v>
       </c>
       <c r="Q35" t="n">
-        <v>3244.098748640548</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R35" t="n">
-        <v>3417.383453572265</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S35" t="n">
-        <v>3333.642900999343</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T35" t="n">
-        <v>3116.679746331517</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U35" t="n">
-        <v>3116.679746331517</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V35" t="n">
-        <v>3116.679746331517</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W35" t="n">
-        <v>2720.288396631864</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X35" t="n">
-        <v>2308.568397799611</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y35" t="n">
-        <v>1903.231127754502</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>630.3094044372255</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C36" t="n">
-        <v>512.8035009547302</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D36" t="n">
-        <v>408.9635424700152</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E36" t="n">
-        <v>304.2616087429524</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F36" t="n">
-        <v>210.6157784258566</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G36" t="n">
-        <v>117.0463195207338</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H36" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I36" t="n">
-        <v>92.13729076349543</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J36" t="n">
-        <v>408.681162823457</v>
+        <v>125.6532705892103</v>
       </c>
       <c r="K36" t="n">
-        <v>463.1555325268648</v>
+        <v>180.1276402926181</v>
       </c>
       <c r="L36" t="n">
-        <v>614.7621514063084</v>
+        <v>260.9025658513265</v>
       </c>
       <c r="M36" t="n">
-        <v>712.1681707042105</v>
+        <v>358.3085851492286</v>
       </c>
       <c r="N36" t="n">
-        <v>814.4936422910807</v>
+        <v>460.6340567360988</v>
       </c>
       <c r="O36" t="n">
-        <v>904.490741169751</v>
+        <v>550.6311556147691</v>
       </c>
       <c r="P36" t="n">
-        <v>1711.330573871021</v>
+        <v>1357.470988316039</v>
       </c>
       <c r="Q36" t="n">
-        <v>1749.402859845435</v>
+        <v>1781.934765925191</v>
       </c>
       <c r="R36" t="n">
-        <v>1860.893661255467</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S36" t="n">
-        <v>1788.565313094143</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T36" t="n">
-        <v>1648.637498155918</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U36" t="n">
-        <v>1463.901164764849</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V36" t="n">
-        <v>1258.928025904116</v>
+        <v>1291.459931983872</v>
       </c>
       <c r="W36" t="n">
-        <v>1062.406648737333</v>
+        <v>1094.938554817089</v>
       </c>
       <c r="X36" t="n">
-        <v>898.9293025039958</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y36" t="n">
-        <v>759.2364138572882</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1047.74420122565</v>
+        <v>914.4251692468201</v>
       </c>
       <c r="C37" t="n">
-        <v>875.771638104566</v>
+        <v>742.4526061257361</v>
       </c>
       <c r="D37" t="n">
-        <v>712.4548652313367</v>
+        <v>579.1358332525068</v>
       </c>
       <c r="E37" t="n">
-        <v>546.2466593841903</v>
+        <v>412.9276274053604</v>
       </c>
       <c r="F37" t="n">
-        <v>374.3848851587506</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="G37" t="n">
-        <v>208.5339471001647</v>
+        <v>241.0658531799208</v>
       </c>
       <c r="H37" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I37" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J37" t="n">
-        <v>153.9741766459933</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K37" t="n">
-        <v>426.7365203101029</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L37" t="n">
-        <v>840.5903938864162</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M37" t="n">
-        <v>1294.156913755571</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N37" t="n">
-        <v>1732.54587532019</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O37" t="n">
-        <v>2144.222656248875</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P37" t="n">
-        <v>2482.952307424677</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q37" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R37" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S37" t="n">
-        <v>2643.275459009973</v>
+        <v>2651.828460643333</v>
       </c>
       <c r="T37" t="n">
-        <v>2401.670973728378</v>
+        <v>2410.223975361737</v>
       </c>
       <c r="U37" t="n">
-        <v>2263.380706021626</v>
+        <v>2130.061674042797</v>
       </c>
       <c r="V37" t="n">
-        <v>1981.669238629655</v>
+        <v>1848.350206650826</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.816834802168</v>
+        <v>1573.497802823339</v>
       </c>
       <c r="X37" t="n">
-        <v>1464.252938247974</v>
+        <v>1330.933906269144</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.910169937716</v>
+        <v>1104.591137958886</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1564.705910358588</v>
+        <v>2494.206157405997</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.805180371888</v>
+        <v>2067.305427419297</v>
       </c>
       <c r="D38" t="n">
-        <v>714.5125595568886</v>
+        <v>1644.012806604297</v>
       </c>
       <c r="E38" t="n">
-        <v>288.5356197047462</v>
+        <v>1218.035866752155</v>
       </c>
       <c r="F38" t="n">
-        <v>288.5356197047462</v>
+        <v>792.911684941555</v>
       </c>
       <c r="G38" t="n">
-        <v>68.34766907144531</v>
+        <v>389.4778004379234</v>
       </c>
       <c r="H38" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I38" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J38" t="n">
-        <v>506.2481369825711</v>
+        <v>538.7800430623273</v>
       </c>
       <c r="K38" t="n">
-        <v>670.1151700004218</v>
+        <v>1285.222872104627</v>
       </c>
       <c r="L38" t="n">
-        <v>1515.917574759558</v>
+        <v>1387.295219777919</v>
       </c>
       <c r="M38" t="n">
-        <v>1634.639012366612</v>
+        <v>1506.016657384974</v>
       </c>
       <c r="N38" t="n">
-        <v>1756.03123081515</v>
+        <v>2640.566760926315</v>
       </c>
       <c r="O38" t="n">
-        <v>2601.833635574286</v>
+        <v>3635.18871048979</v>
       </c>
       <c r="P38" t="n">
-        <v>2692.209444151319</v>
+        <v>4471.043406416879</v>
       </c>
       <c r="Q38" t="n">
-        <v>3244.098748640548</v>
+        <v>5022.932710906109</v>
       </c>
       <c r="R38" t="n">
-        <v>3417.383453572265</v>
+        <v>5043.978757560075</v>
       </c>
       <c r="S38" t="n">
-        <v>3417.383453572265</v>
+        <v>4960.238204987152</v>
       </c>
       <c r="T38" t="n">
-        <v>3417.383453572265</v>
+        <v>4743.275050319327</v>
       </c>
       <c r="U38" t="n">
-        <v>3159.100958401231</v>
+        <v>4484.992555148293</v>
       </c>
       <c r="V38" t="n">
-        <v>2801.611543527481</v>
+        <v>4127.503140274543</v>
       </c>
       <c r="W38" t="n">
-        <v>2801.611543527481</v>
+        <v>3731.111790574889</v>
       </c>
       <c r="X38" t="n">
-        <v>2389.891544695228</v>
+        <v>3319.391791742637</v>
       </c>
       <c r="Y38" t="n">
-        <v>1984.554274650118</v>
+        <v>2914.054521697527</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>630.3094044372255</v>
+        <v>662.8413105169816</v>
       </c>
       <c r="C39" t="n">
-        <v>512.8035009547302</v>
+        <v>545.3354070344864</v>
       </c>
       <c r="D39" t="n">
-        <v>408.9635424700152</v>
+        <v>441.4954485497714</v>
       </c>
       <c r="E39" t="n">
-        <v>304.2616087429524</v>
+        <v>336.7935148227086</v>
       </c>
       <c r="F39" t="n">
-        <v>210.6157784258566</v>
+        <v>243.1476845056128</v>
       </c>
       <c r="G39" t="n">
-        <v>117.0463195207338</v>
+        <v>149.57822560049</v>
       </c>
       <c r="H39" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I39" t="n">
-        <v>68.67998491908359</v>
+        <v>101.2118909988398</v>
       </c>
       <c r="J39" t="n">
-        <v>93.12136450945414</v>
+        <v>417.7557630588014</v>
       </c>
       <c r="K39" t="n">
-        <v>147.5957342128619</v>
+        <v>923.060437274672</v>
       </c>
       <c r="L39" t="n">
-        <v>228.3706597715703</v>
+        <v>1003.83536283338</v>
       </c>
       <c r="M39" t="n">
-        <v>325.7766790694725</v>
+        <v>1101.241382131283</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.579083828608</v>
+        <v>1203.566853718153</v>
       </c>
       <c r="O39" t="n">
-        <v>1747.697091285935</v>
+        <v>1293.563952596823</v>
       </c>
       <c r="P39" t="n">
-        <v>1816.786074155927</v>
+        <v>1362.652935466815</v>
       </c>
       <c r="Q39" t="n">
-        <v>1854.85836013034</v>
+        <v>1887.390266210096</v>
       </c>
       <c r="R39" t="n">
-        <v>1860.893661255467</v>
+        <v>1893.425567335223</v>
       </c>
       <c r="S39" t="n">
-        <v>1788.565313094143</v>
+        <v>1821.097219173899</v>
       </c>
       <c r="T39" t="n">
-        <v>1648.637498155918</v>
+        <v>1681.169404235674</v>
       </c>
       <c r="U39" t="n">
-        <v>1463.901164764849</v>
+        <v>1496.433070844605</v>
       </c>
       <c r="V39" t="n">
-        <v>1258.928025904116</v>
+        <v>1291.459931983872</v>
       </c>
       <c r="W39" t="n">
-        <v>1062.406648737333</v>
+        <v>1094.938554817089</v>
       </c>
       <c r="X39" t="n">
-        <v>898.9293025039958</v>
+        <v>931.461208583752</v>
       </c>
       <c r="Y39" t="n">
-        <v>759.2364138572882</v>
+        <v>791.7683199370443</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>744.2411503237014</v>
+        <v>938.404073693217</v>
       </c>
       <c r="C40" t="n">
-        <v>572.2685872026174</v>
+        <v>766.431510572133</v>
       </c>
       <c r="D40" t="n">
-        <v>572.2685872026174</v>
+        <v>604.8004932823735</v>
       </c>
       <c r="E40" t="n">
-        <v>406.0603813554709</v>
+        <v>438.592287435227</v>
       </c>
       <c r="F40" t="n">
-        <v>234.1986071300313</v>
+        <v>266.7305132097875</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="H40" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="I40" t="n">
-        <v>68.34766907144531</v>
+        <v>100.8795751512015</v>
       </c>
       <c r="J40" t="n">
-        <v>153.9741766459933</v>
+        <v>186.5060827257495</v>
       </c>
       <c r="K40" t="n">
-        <v>426.7365203101029</v>
+        <v>459.2684263898591</v>
       </c>
       <c r="L40" t="n">
-        <v>840.5903938864162</v>
+        <v>873.1222999661725</v>
       </c>
       <c r="M40" t="n">
-        <v>1294.156913755571</v>
+        <v>1326.688819835327</v>
       </c>
       <c r="N40" t="n">
-        <v>1732.54587532019</v>
+        <v>1765.077781399947</v>
       </c>
       <c r="O40" t="n">
-        <v>2144.222656248875</v>
+        <v>2176.754562328631</v>
       </c>
       <c r="P40" t="n">
-        <v>2482.952307424677</v>
+        <v>2515.484213504434</v>
       </c>
       <c r="Q40" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="R40" t="n">
-        <v>2643.275459009973</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="S40" t="n">
-        <v>2480.216435780451</v>
+        <v>2675.80736508973</v>
       </c>
       <c r="T40" t="n">
-        <v>2240.039956438618</v>
+        <v>2434.202879808134</v>
       </c>
       <c r="U40" t="n">
-        <v>1959.877655119678</v>
+        <v>2154.040578489194</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.166187727707</v>
+        <v>1872.329111097222</v>
       </c>
       <c r="W40" t="n">
-        <v>1403.31378390022</v>
+        <v>1597.476707269735</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.749887346025</v>
+        <v>1354.912810715541</v>
       </c>
       <c r="Y40" t="n">
-        <v>934.407119035767</v>
+        <v>1128.570042405283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2165.024704355327</v>
+        <v>2392.343780437153</v>
       </c>
       <c r="C41" t="n">
-        <v>1738.123974368627</v>
+        <v>2059.254105735105</v>
       </c>
       <c r="D41" t="n">
-        <v>1314.831353553627</v>
+        <v>1635.961484920105</v>
       </c>
       <c r="E41" t="n">
-        <v>888.8544137014849</v>
+        <v>1209.984545067963</v>
       </c>
       <c r="F41" t="n">
-        <v>463.730231890885</v>
+        <v>784.8603632573631</v>
       </c>
       <c r="G41" t="n">
-        <v>60.29634738725349</v>
+        <v>381.4264787537316</v>
       </c>
       <c r="H41" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I41" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="J41" t="n">
-        <v>106.4675965907531</v>
+        <v>530.7287213781354</v>
       </c>
       <c r="K41" t="n">
-        <v>455.1227583783193</v>
+        <v>1359.087727249865</v>
       </c>
       <c r="L41" t="n">
-        <v>557.1951060516114</v>
+        <v>2428.714044550731</v>
       </c>
       <c r="M41" t="n">
-        <v>675.9165436586658</v>
+        <v>2547.435482157785</v>
       </c>
       <c r="N41" t="n">
-        <v>797.3087621072042</v>
+        <v>2668.827700606324</v>
       </c>
       <c r="O41" t="n">
-        <v>1543.476061024466</v>
+        <v>3232.622626280198</v>
       </c>
       <c r="P41" t="n">
-        <v>2289.643359941728</v>
+        <v>4068.477322207288</v>
       </c>
       <c r="Q41" t="n">
-        <v>2841.532664430958</v>
+        <v>4620.366626696517</v>
       </c>
       <c r="R41" t="n">
-        <v>3014.817369362675</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.817369362675</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="T41" t="n">
-        <v>3014.817369362675</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="U41" t="n">
-        <v>3014.817369362675</v>
+        <v>4383.130178179449</v>
       </c>
       <c r="V41" t="n">
-        <v>3014.817369362675</v>
+        <v>4025.640763305699</v>
       </c>
       <c r="W41" t="n">
-        <v>2996.59306747911</v>
+        <v>3629.249413606046</v>
       </c>
       <c r="X41" t="n">
-        <v>2584.873068646857</v>
+        <v>3217.529414773793</v>
       </c>
       <c r="Y41" t="n">
-        <v>2584.873068646857</v>
+        <v>2812.192144728684</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>622.2580827530336</v>
+        <v>654.7899888327898</v>
       </c>
       <c r="C42" t="n">
-        <v>504.7521792705384</v>
+        <v>537.2840853502946</v>
       </c>
       <c r="D42" t="n">
-        <v>400.9122207858234</v>
+        <v>433.4441268655796</v>
       </c>
       <c r="E42" t="n">
-        <v>296.2102870587606</v>
+        <v>328.7421931385168</v>
       </c>
       <c r="F42" t="n">
-        <v>202.5644567416648</v>
+        <v>235.096362821421</v>
       </c>
       <c r="G42" t="n">
-        <v>108.994997836542</v>
+        <v>141.5269039162982</v>
       </c>
       <c r="H42" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I42" t="n">
-        <v>84.08596907930362</v>
+        <v>93.16056931464796</v>
       </c>
       <c r="J42" t="n">
-        <v>108.5273486696742</v>
+        <v>409.7044413746096</v>
       </c>
       <c r="K42" t="n">
-        <v>163.001718373082</v>
+        <v>1076.838979141357</v>
       </c>
       <c r="L42" t="n">
-        <v>909.169017290344</v>
+        <v>1157.613904700065</v>
       </c>
       <c r="M42" t="n">
-        <v>1006.575036588246</v>
+        <v>1255.019923997967</v>
       </c>
       <c r="N42" t="n">
-        <v>1108.900508175116</v>
+        <v>1357.345395584838</v>
       </c>
       <c r="O42" t="n">
-        <v>1739.645769601743</v>
+        <v>1447.342494463508</v>
       </c>
       <c r="P42" t="n">
-        <v>1808.734752471735</v>
+        <v>1516.4314773335</v>
       </c>
       <c r="Q42" t="n">
-        <v>1846.807038446148</v>
+        <v>1879.338944525905</v>
       </c>
       <c r="R42" t="n">
-        <v>1852.842339571275</v>
+        <v>1885.374245651032</v>
       </c>
       <c r="S42" t="n">
-        <v>1780.513991409951</v>
+        <v>1813.045897489708</v>
       </c>
       <c r="T42" t="n">
-        <v>1640.586176471727</v>
+        <v>1673.118082551483</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.849843080658</v>
+        <v>1488.381749160414</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.876704219924</v>
+        <v>1283.40861029968</v>
       </c>
       <c r="W42" t="n">
-        <v>1054.355327053141</v>
+        <v>1086.887233132897</v>
       </c>
       <c r="X42" t="n">
-        <v>890.877980819804</v>
+        <v>923.4098868995602</v>
       </c>
       <c r="Y42" t="n">
-        <v>751.1850921730963</v>
+        <v>783.7169982528526</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.7618226997463</v>
+        <v>766.187569533909</v>
       </c>
       <c r="C43" t="n">
-        <v>727.5340383916548</v>
+        <v>594.215006412825</v>
       </c>
       <c r="D43" t="n">
-        <v>564.2172655184255</v>
+        <v>430.8982335395957</v>
       </c>
       <c r="E43" t="n">
-        <v>398.009059671279</v>
+        <v>264.6900276924492</v>
       </c>
       <c r="F43" t="n">
-        <v>226.1472854458395</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="G43" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="H43" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I43" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="J43" t="n">
-        <v>145.9228549618015</v>
+        <v>178.4547610415577</v>
       </c>
       <c r="K43" t="n">
-        <v>418.6851986259111</v>
+        <v>451.2171047056672</v>
       </c>
       <c r="L43" t="n">
-        <v>832.5390722022244</v>
+        <v>865.0709782819806</v>
       </c>
       <c r="M43" t="n">
-        <v>1286.105592071379</v>
+        <v>1318.637498151135</v>
       </c>
       <c r="N43" t="n">
-        <v>1724.494553635998</v>
+        <v>1757.026459715755</v>
       </c>
       <c r="O43" t="n">
-        <v>2136.171334564683</v>
+        <v>2168.70324064444</v>
       </c>
       <c r="P43" t="n">
-        <v>2474.900985740485</v>
+        <v>2507.432891820242</v>
       </c>
       <c r="Q43" t="n">
-        <v>2635.224137325782</v>
+        <v>2667.756043405538</v>
       </c>
       <c r="R43" t="n">
-        <v>2635.224137325782</v>
+        <v>2666.649884159945</v>
       </c>
       <c r="S43" t="n">
-        <v>2472.165114096259</v>
+        <v>2503.590860930422</v>
       </c>
       <c r="T43" t="n">
-        <v>2230.560628814663</v>
+        <v>2261.986375648826</v>
       </c>
       <c r="U43" t="n">
-        <v>1950.398327495723</v>
+        <v>1981.824074329886</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.686860103752</v>
+        <v>1700.112606937915</v>
       </c>
       <c r="W43" t="n">
-        <v>1393.834456276265</v>
+        <v>1425.260203110427</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.27055972207</v>
+        <v>1182.696306556233</v>
       </c>
       <c r="Y43" t="n">
-        <v>924.927791411812</v>
+        <v>956.3535382459747</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2041.269512173323</v>
+        <v>2486.154835721805</v>
       </c>
       <c r="C44" t="n">
-        <v>1614.368782186623</v>
+        <v>2059.254105735105</v>
       </c>
       <c r="D44" t="n">
-        <v>1191.076161371624</v>
+        <v>1635.961484920105</v>
       </c>
       <c r="E44" t="n">
-        <v>765.099221519481</v>
+        <v>1209.984545067963</v>
       </c>
       <c r="F44" t="n">
-        <v>339.9750397088812</v>
+        <v>784.8603632573631</v>
       </c>
       <c r="G44" t="n">
-        <v>339.9750397088812</v>
+        <v>381.4264787537316</v>
       </c>
       <c r="H44" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I44" t="n">
-        <v>93.20515009918054</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="J44" t="n">
-        <v>603.5547067638612</v>
+        <v>530.7287213781354</v>
       </c>
       <c r="K44" t="n">
-        <v>1349.722005681123</v>
+        <v>1359.087727249865</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.500426474509</v>
+        <v>1997.88702066113</v>
       </c>
       <c r="M44" t="n">
-        <v>1855.108325509244</v>
+        <v>2116.608458268185</v>
       </c>
       <c r="N44" t="n">
-        <v>2128.812325032834</v>
+        <v>2238.000676716723</v>
       </c>
       <c r="O44" t="n">
-        <v>2385.096270498589</v>
+        <v>3232.622626280198</v>
       </c>
       <c r="P44" t="n">
-        <v>2787.930055412687</v>
+        <v>4068.477322207288</v>
       </c>
       <c r="Q44" t="n">
-        <v>2940.150738353528</v>
+        <v>4620.366626696517</v>
       </c>
       <c r="R44" t="n">
-        <v>3014.817369362675</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="S44" t="n">
-        <v>2950.923403626523</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.772796797555</v>
+        <v>4641.412673350484</v>
       </c>
       <c r="U44" t="n">
-        <v>2479.55997697252</v>
+        <v>4383.130178179449</v>
       </c>
       <c r="V44" t="n">
-        <v>2479.55997697252</v>
+        <v>4025.640763305699</v>
       </c>
       <c r="W44" t="n">
-        <v>2479.55997697252</v>
+        <v>3629.249413606046</v>
       </c>
       <c r="X44" t="n">
-        <v>2479.55997697252</v>
+        <v>3311.340470058445</v>
       </c>
       <c r="Y44" t="n">
-        <v>2461.117876464853</v>
+        <v>2906.003200013335</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>617.291557537156</v>
+        <v>654.7899888327898</v>
       </c>
       <c r="C45" t="n">
-        <v>499.7856540546608</v>
+        <v>537.2840853502946</v>
       </c>
       <c r="D45" t="n">
-        <v>395.9456955699458</v>
+        <v>433.4441268655796</v>
       </c>
       <c r="E45" t="n">
-        <v>291.243761842883</v>
+        <v>328.7421931385168</v>
       </c>
       <c r="F45" t="n">
-        <v>197.5979315257872</v>
+        <v>235.096362821421</v>
       </c>
       <c r="G45" t="n">
-        <v>104.4944675791912</v>
+        <v>141.5269039162982</v>
       </c>
       <c r="H45" t="n">
-        <v>60.29634738725349</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I45" t="n">
-        <v>76.35350982256284</v>
+        <v>93.16056931464796</v>
       </c>
       <c r="J45" t="n">
-        <v>143.9450703486051</v>
+        <v>409.7044413746096</v>
       </c>
       <c r="K45" t="n">
-        <v>272.1699721307754</v>
+        <v>915.0091155904806</v>
       </c>
       <c r="L45" t="n">
-        <v>452.1115894503317</v>
+        <v>995.784041149189</v>
       </c>
       <c r="M45" t="n">
-        <v>665.2404606424706</v>
+        <v>1093.190060447091</v>
       </c>
       <c r="N45" t="n">
-        <v>886.351623669125</v>
+        <v>1195.515532033961</v>
       </c>
       <c r="O45" t="n">
-        <v>1085.014423546699</v>
+        <v>1285.512630912631</v>
       </c>
       <c r="P45" t="n">
-        <v>1241.317211605738</v>
+        <v>1354.601613782623</v>
       </c>
       <c r="Q45" t="n">
-        <v>1802.919110847221</v>
+        <v>1879.338944525905</v>
       </c>
       <c r="R45" t="n">
-        <v>1837.311218124587</v>
+        <v>1885.374245651032</v>
       </c>
       <c r="S45" t="n">
-        <v>1773.638521934144</v>
+        <v>1813.045897489708</v>
       </c>
       <c r="T45" t="n">
-        <v>1635.588993692788</v>
+        <v>1673.118082551483</v>
       </c>
       <c r="U45" t="n">
-        <v>1450.88331786478</v>
+        <v>1488.381749160414</v>
       </c>
       <c r="V45" t="n">
-        <v>1245.910179004046</v>
+        <v>1283.40861029968</v>
       </c>
       <c r="W45" t="n">
-        <v>1049.388801837263</v>
+        <v>1086.887233132897</v>
       </c>
       <c r="X45" t="n">
-        <v>885.9114556039264</v>
+        <v>923.4098868995602</v>
       </c>
       <c r="Y45" t="n">
-        <v>746.2185669572187</v>
+        <v>783.7169982528526</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1111.6381943798</v>
+        <v>766.187569533909</v>
       </c>
       <c r="C46" t="n">
-        <v>939.6656312587155</v>
+        <v>594.215006412825</v>
       </c>
       <c r="D46" t="n">
-        <v>776.3488583854862</v>
+        <v>430.8982335395957</v>
       </c>
       <c r="E46" t="n">
-        <v>610.1406525383397</v>
+        <v>264.6900276924492</v>
       </c>
       <c r="F46" t="n">
-        <v>438.2788783129002</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="G46" t="n">
-        <v>272.8186147737588</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="H46" t="n">
-        <v>136.1057883815476</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="I46" t="n">
-        <v>60.2963473872535</v>
+        <v>92.82825346700967</v>
       </c>
       <c r="J46" t="n">
-        <v>172.9938917848267</v>
+        <v>178.4547610415577</v>
       </c>
       <c r="K46" t="n">
-        <v>490.2422648430811</v>
+        <v>451.2171047056672</v>
       </c>
       <c r="L46" t="n">
-        <v>961.0229400400394</v>
+        <v>865.0709782819806</v>
       </c>
       <c r="M46" t="n">
-        <v>1474.610790491607</v>
+        <v>1318.637498151135</v>
       </c>
       <c r="N46" t="n">
-        <v>1971.59390955166</v>
+        <v>1757.026459715755</v>
       </c>
       <c r="O46" t="n">
-        <v>2437.391878666586</v>
+        <v>2168.70324064444</v>
       </c>
       <c r="P46" t="n">
-        <v>2822.431556059893</v>
+        <v>2507.432891820242</v>
       </c>
       <c r="Q46" t="n">
-        <v>3014.817369362675</v>
+        <v>2667.756043405538</v>
       </c>
       <c r="R46" t="n">
-        <v>3003.601562414665</v>
+        <v>2666.649884159945</v>
       </c>
       <c r="S46" t="n">
-        <v>2847.350930583083</v>
+        <v>2503.590860930422</v>
       </c>
       <c r="T46" t="n">
-        <v>2607.415690975474</v>
+        <v>2261.986375648826</v>
       </c>
       <c r="U46" t="n">
-        <v>2327.274699175776</v>
+        <v>1981.824074329886</v>
       </c>
       <c r="V46" t="n">
-        <v>2045.563231783805</v>
+        <v>1700.112606937915</v>
       </c>
       <c r="W46" t="n">
-        <v>1770.710827956318</v>
+        <v>1425.260203110427</v>
       </c>
       <c r="X46" t="n">
-        <v>1528.146931402123</v>
+        <v>1182.696306556233</v>
       </c>
       <c r="Y46" t="n">
-        <v>1301.804163091865</v>
+        <v>956.3535382459747</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,16 +8072,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>549.2245073196783</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8297,28 +8297,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>467.7777678727252</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>452.289812307084</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8537,13 +8537,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>184.1630016116738</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
@@ -8552,10 +8552,10 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K11" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L12" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>267.0107895760206</v>
       </c>
       <c r="O12" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8932,7 +8932,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8944,7 +8944,7 @@
         <v>181.6704383876113</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>379.6111138811506</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,16 +9017,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>193.7977460354629</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>536.9486901204622</v>
       </c>
       <c r="N17" t="n">
-        <v>534.2509316947206</v>
+        <v>534.2509316947207</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>263.110187033531</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>431.6898976444959</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>348.863438613694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>578.6433310272146</v>
+        <v>578.6433310272147</v>
       </c>
       <c r="L20" t="n">
-        <v>218.7177877010362</v>
+        <v>553.7659526798179</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>145.6507765351926</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>565.5806386356348</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>336.1882681622211</v>
       </c>
       <c r="L21" t="n">
-        <v>431.6898976444947</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>587.0824827841618</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>35.97877775559495</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>555.5406810198347</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>431.6898976444959</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22.05321710944796</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>675.7566524575055</v>
       </c>
       <c r="L26" t="n">
-        <v>418.6656342219781</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>734.4252193455367</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>731.7274609197952</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>740.7496516251884</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>496.815143353175</v>
       </c>
       <c r="L27" t="n">
-        <v>197.9013889784587</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>751.2424819048924</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>958.2395822381122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>465.2317181441252</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>325.1691902860056</v>
+        <v>455.3841459721847</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>254.3963814394957</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>751.2424819048924</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>734.4252193455367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>731.7274609197952</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>231.8271774331932</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>496.815143353175</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>325.1691902860055</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>734.4252193455368</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>91.85418949608416</v>
+        <v>424.6520355426209</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>71.54716497043954</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>390.2944359946848</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10825,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>87.29625243280945</v>
+        <v>675.7566524575055</v>
       </c>
       <c r="L38" t="n">
-        <v>751.2424819048924</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>740.7496516251886</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>455.3841459721847</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>750.9868011841065</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>491.0312207865217</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>273.9509279577746</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>640.1081305727909</v>
+        <v>455.893612145127</v>
       </c>
       <c r="P41" t="n">
-        <v>662.4156468083117</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>672.1135084429834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>546.210265199956</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>328.1163446646381</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>565.799143692066</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>542.1484300383568</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>191.6240196336284</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>455.3841459721851</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>469.9287819673058</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>319.5620332863342</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22564,10 +22564,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>275.2351415803119</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>156.5941094364323</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.22901082268959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>319.2987435561473</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22798,10 +22798,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>202.5087917325938</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22843,10 +22843,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>39.86003154426979</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>209.4011013650315</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -23086,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>243.7734050329833</v>
       </c>
     </row>
     <row r="9">
@@ -23181,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.2116180018445</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>137.9961245895523</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>302.7040090413161</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>71.98949189919185</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>18.4496713308867</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,19 +23497,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>204.8891861576492</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.7391542194586</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>18.4496713308867</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>16.31507806915522</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>244.5582701572297</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.641581813437483</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H19" t="n">
         <v>138.7844152484321</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.49413443704393</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>85.58741072408988</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>399.3995456585952</v>
       </c>
       <c r="H20" t="n">
         <v>285.7122430338547</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.9031470471935</v>
+        <v>15.7816184091387</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.512692020049</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>113.7278500504587</v>
       </c>
       <c r="H22" t="n">
         <v>138.7844152484321</v>
       </c>
       <c r="I22" t="n">
-        <v>86.68250837722753</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.49413443704391</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.668898027635038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>137.6893175952943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>56.62781201615185</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.49413443704391</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>8.528127508758246</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6893175952943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>140.4533132760676</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S28" t="n">
-        <v>161.4284329972273</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293.9054844905337</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>140.4533132760673</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>140.4533132760671</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>60.0504500931176</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>138.7844152484321</v>
       </c>
       <c r="I34" t="n">
-        <v>85.58741072408998</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.49413443704394</v>
+        <v>27.39903678390635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>130.2269696491886</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>28.49413443704394</v>
       </c>
       <c r="S37" t="n">
-        <v>161.4284329972273</v>
+        <v>137.6893175952944</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>140.4533132760671</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>181.4134745316273</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.90314704719353</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>214.7935231211468</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>1.668898027635123</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.49413443704393</v>
+        <v>28.49413443704394</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.4284329972273</v>
       </c>
       <c r="T40" t="n">
-        <v>1.413725880365547</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>92.87294473180503</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.7122430338547</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>214.7935231211468</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6996702193238</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>374.3853773379275</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>163.0973310248626</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H43" t="n">
         <v>138.7844152484321</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.49413443704394</v>
+        <v>27.39903678390635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5373132518632</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.90314704719353</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>214.7935231211468</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>92.87294473180503</v>
       </c>
       <c r="Y44" t="n">
-        <v>383.0262178420687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.1924286780001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.7844152484321</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>86.68250837722755</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.39903678390635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475266.4581894511</v>
+        <v>475266.4581894512</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>475266.4581894511</v>
+        <v>475266.4581894512</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>475266.4581894512</v>
+        <v>475266.4581894513</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520740.7781591433</v>
+        <v>520740.7781591434</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782579.0834230164</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606330.4977342836</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>606330.4977342836</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606330.4977342836</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>606330.4977342836</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606330.4977342836</v>
+        <v>782579.0834230162</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>562710.7339158067</v>
+        <v>738959.3196045395</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>560790.745152289</v>
+        <v>738959.3196045395</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>169412.1915076495</v>
       </c>
       <c r="G2" t="n">
-        <v>192905.9441304142</v>
+        <v>192905.9441304144</v>
       </c>
       <c r="H2" t="n">
-        <v>192905.9441304145</v>
+        <v>192905.9441304143</v>
       </c>
       <c r="I2" t="n">
         <v>286216.6333365309</v>
       </c>
       <c r="J2" t="n">
-        <v>223407.3473321578</v>
+        <v>286216.6333365311</v>
       </c>
       <c r="K2" t="n">
-        <v>223407.3473321577</v>
+        <v>286216.6333365309</v>
       </c>
       <c r="L2" t="n">
-        <v>223407.3473321578</v>
+        <v>286216.6333365309</v>
       </c>
       <c r="M2" t="n">
-        <v>223407.3473321577</v>
+        <v>286216.6333365308</v>
       </c>
       <c r="N2" t="n">
-        <v>223407.3473321576</v>
+        <v>286216.6333365308</v>
       </c>
       <c r="O2" t="n">
-        <v>207862.6766591319</v>
+        <v>270671.9626635052</v>
       </c>
       <c r="P2" t="n">
-        <v>214188.1041883336</v>
+        <v>270671.9626635051</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>160649.6185859967</v>
+        <v>160649.6185859966</v>
       </c>
       <c r="J3" t="n">
-        <v>39136.44450566957</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>142752.9475903224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>52194.43267059495</v>
       </c>
       <c r="C4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="D4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="E4" t="n">
         <v>52194.43267059495</v>
       </c>
       <c r="F4" t="n">
-        <v>52194.43267059494</v>
+        <v>52194.43267059495</v>
       </c>
       <c r="G4" t="n">
         <v>38995.26096811709</v>
       </c>
       <c r="H4" t="n">
-        <v>38995.26096811707</v>
+        <v>38995.26096811709</v>
       </c>
       <c r="I4" t="n">
         <v>67842.45903918464</v>
       </c>
       <c r="J4" t="n">
-        <v>48424.83465460648</v>
+        <v>67842.45903918464</v>
       </c>
       <c r="K4" t="n">
-        <v>48424.83465460649</v>
+        <v>67842.45903918464</v>
       </c>
       <c r="L4" t="n">
-        <v>48424.83465460649</v>
+        <v>67842.45903918464</v>
       </c>
       <c r="M4" t="n">
-        <v>48424.83465460649</v>
+        <v>67842.45903918464</v>
       </c>
       <c r="N4" t="n">
-        <v>48424.83465460649</v>
+        <v>67842.45903918464</v>
       </c>
       <c r="O4" t="n">
-        <v>43619.16664733498</v>
+        <v>63036.79103191313</v>
       </c>
       <c r="P4" t="n">
-        <v>25898.41469417641</v>
+        <v>63036.79103191313</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>44797.1234772162</v>
       </c>
       <c r="I5" t="n">
-        <v>81527.94507471546</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="J5" t="n">
-        <v>56803.69645410073</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="K5" t="n">
-        <v>56803.69645410073</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="L5" t="n">
-        <v>56803.69645410073</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="M5" t="n">
-        <v>56803.69645410073</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="N5" t="n">
-        <v>56803.69645410073</v>
+        <v>81527.94507471543</v>
       </c>
       <c r="O5" t="n">
-        <v>50684.69197411495</v>
+        <v>75408.94059472963</v>
       </c>
       <c r="P5" t="n">
-        <v>55360.36275772047</v>
+        <v>75408.94059472963</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136633.2256151108</v>
+        <v>-137242.2713276005</v>
       </c>
       <c r="C6" t="n">
-        <v>49771.50779962643</v>
+        <v>49162.46208713675</v>
       </c>
       <c r="D6" t="n">
-        <v>49771.50779962652</v>
+        <v>49162.46208713684</v>
       </c>
       <c r="E6" t="n">
-        <v>83399.10779962645</v>
+        <v>82790.06208713679</v>
       </c>
       <c r="F6" t="n">
-        <v>83399.10779962644</v>
+        <v>82790.06208713673</v>
       </c>
       <c r="G6" t="n">
-        <v>-91781.46728517138</v>
+        <v>-92273.04423454702</v>
       </c>
       <c r="H6" t="n">
-        <v>109113.5596850812</v>
+        <v>108621.9827357051</v>
       </c>
       <c r="I6" t="n">
-        <v>-23803.38936336589</v>
+        <v>-23828.41286671098</v>
       </c>
       <c r="J6" t="n">
-        <v>79042.371717781</v>
+        <v>-8712.464215530787</v>
       </c>
       <c r="K6" t="n">
-        <v>118178.8162234505</v>
+        <v>136821.2057192856</v>
       </c>
       <c r="L6" t="n">
-        <v>118178.8162234506</v>
+        <v>136821.2057192855</v>
       </c>
       <c r="M6" t="n">
-        <v>118178.8162234505</v>
+        <v>136821.2057192855</v>
       </c>
       <c r="N6" t="n">
-        <v>118178.8162234504</v>
+        <v>136821.2057192855</v>
       </c>
       <c r="O6" t="n">
-        <v>113558.818037682</v>
+        <v>132123.484180152</v>
       </c>
       <c r="P6" t="n">
-        <v>-9823.620853885717</v>
+        <v>132123.484180152</v>
       </c>
     </row>
   </sheetData>
@@ -26752,13 +26752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9113743028577</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="H3" t="n">
-        <v>222.9113743028579</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="I3" t="n">
-        <v>222.9113743028579</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="J3" t="n">
         <v>222.9113743028576</v>
@@ -26779,7 +26779,7 @@
         <v>222.9113743028576</v>
       </c>
       <c r="P3" t="n">
-        <v>437.3916854774229</v>
+        <v>222.9113743028576</v>
       </c>
     </row>
     <row r="4">
@@ -26813,25 +26813,25 @@
         <v>1260.994689390019</v>
       </c>
       <c r="J4" t="n">
-        <v>854.3458633930663</v>
+        <v>1260.994689390019</v>
       </c>
       <c r="K4" t="n">
-        <v>854.3458633930663</v>
+        <v>1260.994689390019</v>
       </c>
       <c r="L4" t="n">
-        <v>854.3458633930663</v>
+        <v>1260.994689390019</v>
       </c>
       <c r="M4" t="n">
-        <v>854.3458633930663</v>
+        <v>1260.994689390019</v>
       </c>
       <c r="N4" t="n">
-        <v>854.3458633930663</v>
+        <v>1260.994689390019</v>
       </c>
       <c r="O4" t="n">
-        <v>753.7043423406686</v>
+        <v>1160.353168337621</v>
       </c>
       <c r="P4" t="n">
-        <v>753.7043423406686</v>
+        <v>1160.353168337621</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9113743028577</v>
+        <v>222.9113743028576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>214.4803111745652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>604.1253552220273</v>
+        <v>604.1253552220269</v>
       </c>
       <c r="J4" t="n">
-        <v>149.5789871186413</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8961261278506834</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H17" t="n">
-        <v>9.177451706850814</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
-        <v>76.05758494366701</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K17" t="n">
-        <v>113.9906039355865</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L17" t="n">
-        <v>141.4154239207969</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M17" t="n">
         <v>157.3519069469614</v>
@@ -32250,7 +32250,7 @@
         <v>159.8980253077172</v>
       </c>
       <c r="O17" t="n">
-        <v>150.987171123902</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P17" t="n">
         <v>128.8640573425882</v>
@@ -32259,16 +32259,16 @@
         <v>96.77154038893555</v>
       </c>
       <c r="R17" t="n">
-        <v>56.29128287860054</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S17" t="n">
         <v>20.42047413839747</v>
       </c>
       <c r="T17" t="n">
-        <v>3.922792124666369</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07169009022805466</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4794697485004863</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H18" t="n">
-        <v>4.630668360517856</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I18" t="n">
         <v>16.50805932337201</v>
       </c>
       <c r="J18" t="n">
-        <v>45.29937654582885</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K18" t="n">
-        <v>77.42384969536143</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L18" t="n">
         <v>104.1059206119148</v>
@@ -32332,22 +32332,22 @@
         <v>114.0780502057275</v>
       </c>
       <c r="P18" t="n">
-        <v>91.55769258865867</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.2038928085884</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R18" t="n">
-        <v>29.76918315689863</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S18" t="n">
-        <v>8.905940284647185</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T18" t="n">
         <v>1.932599556455907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0315440624013478</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,13 +32387,13 @@
         <v>0.4019713307100711</v>
       </c>
       <c r="H19" t="n">
-        <v>3.573890558494999</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I19" t="n">
         <v>12.08837419989923</v>
       </c>
       <c r="J19" t="n">
-        <v>28.41937308120203</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K19" t="n">
         <v>46.70176005886098</v>
@@ -32402,16 +32402,16 @@
         <v>59.76217402211368</v>
       </c>
       <c r="M19" t="n">
-        <v>63.01083323121596</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N19" t="n">
-        <v>61.51257645311484</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O19" t="n">
-        <v>56.81682045345626</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P19" t="n">
-        <v>48.61660530697077</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q19" t="n">
         <v>33.6596175197315</v>
@@ -32420,10 +32420,10 @@
         <v>18.07409274265465</v>
       </c>
       <c r="S19" t="n">
-        <v>7.005264008829147</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T19" t="n">
-        <v>1.717513867579395</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U19" t="n">
         <v>0.02192570894782209</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8961261278506845</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H20" t="n">
-        <v>9.177451706850825</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
-        <v>76.05758494366709</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K20" t="n">
-        <v>113.9906039355866</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L20" t="n">
-        <v>141.415423920797</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M20" t="n">
-        <v>157.3519069469616</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N20" t="n">
-        <v>159.8980253077174</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O20" t="n">
-        <v>150.9871711239021</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P20" t="n">
-        <v>128.8640573425883</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.77154038893566</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R20" t="n">
-        <v>56.2912828786006</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S20" t="n">
-        <v>20.42047413839749</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T20" t="n">
-        <v>3.922792124666373</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07169009022805474</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4794697485004868</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H21" t="n">
-        <v>4.630668360517861</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I21" t="n">
-        <v>16.50805932337203</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J21" t="n">
-        <v>45.2993765458289</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K21" t="n">
-        <v>77.42384969536151</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L21" t="n">
-        <v>104.1059206119149</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M21" t="n">
-        <v>121.4866989950576</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N21" t="n">
-        <v>124.7020904225016</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O21" t="n">
-        <v>114.0780502057277</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P21" t="n">
-        <v>91.55769258865877</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.20389280858847</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R21" t="n">
-        <v>29.76918315689866</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S21" t="n">
-        <v>8.905940284647196</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T21" t="n">
-        <v>1.932599556455909</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03154406240134783</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4019713307100716</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H22" t="n">
-        <v>3.573890558495003</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I22" t="n">
-        <v>12.08837419989925</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J22" t="n">
-        <v>28.41937308120206</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K22" t="n">
-        <v>46.70176005886104</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L22" t="n">
-        <v>59.76217402211375</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M22" t="n">
-        <v>63.01083323121604</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N22" t="n">
-        <v>61.51257645311491</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O22" t="n">
-        <v>56.81682045345632</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P22" t="n">
-        <v>48.61660530697083</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q22" t="n">
-        <v>33.65961751973155</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R22" t="n">
-        <v>18.07409274265467</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S22" t="n">
-        <v>7.005264008829155</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T22" t="n">
-        <v>1.717513867579396</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02192570894782211</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8961261278506845</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H23" t="n">
-        <v>9.177451706850825</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I23" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
-        <v>76.05758494366709</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K23" t="n">
-        <v>113.9906039355866</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L23" t="n">
-        <v>141.415423920797</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M23" t="n">
-        <v>157.3519069469616</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N23" t="n">
-        <v>159.8980253077174</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O23" t="n">
-        <v>150.9871711239021</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P23" t="n">
-        <v>128.8640573425883</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.77154038893566</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R23" t="n">
-        <v>56.2912828786006</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S23" t="n">
-        <v>20.42047413839749</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T23" t="n">
-        <v>3.922792124666373</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07169009022805474</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4794697485004868</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H24" t="n">
-        <v>4.630668360517861</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I24" t="n">
-        <v>16.50805932337203</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J24" t="n">
-        <v>45.2993765458289</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K24" t="n">
-        <v>77.42384969536151</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L24" t="n">
-        <v>104.1059206119149</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M24" t="n">
-        <v>121.4866989950576</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N24" t="n">
-        <v>124.7020904225016</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O24" t="n">
-        <v>114.0780502057277</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P24" t="n">
-        <v>91.55769258865877</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.20389280858847</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R24" t="n">
-        <v>29.76918315689866</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S24" t="n">
-        <v>8.905940284647196</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T24" t="n">
-        <v>1.932599556455909</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03154406240134783</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4019713307100716</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H25" t="n">
-        <v>3.573890558495003</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I25" t="n">
-        <v>12.08837419989925</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J25" t="n">
-        <v>28.41937308120206</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K25" t="n">
-        <v>46.70176005886104</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L25" t="n">
-        <v>59.76217402211375</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M25" t="n">
-        <v>63.01083323121604</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N25" t="n">
-        <v>61.51257645311491</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O25" t="n">
-        <v>56.81682045345632</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P25" t="n">
-        <v>48.61660530697083</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q25" t="n">
-        <v>33.65961751973155</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R25" t="n">
-        <v>18.07409274265467</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S25" t="n">
-        <v>7.005264008829155</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T25" t="n">
-        <v>1.717513867579396</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02192570894782211</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8961261278506834</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H38" t="n">
         <v>9.177451706850812</v>
@@ -33927,7 +33927,7 @@
         <v>3.922792124666368</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07169009022805466</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.4794697485004862</v>
       </c>
       <c r="H39" t="n">
-        <v>4.630668360517856</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I39" t="n">
         <v>16.50805932337201</v>
@@ -33976,7 +33976,7 @@
         <v>45.29937654582884</v>
       </c>
       <c r="K39" t="n">
-        <v>77.42384969536143</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L39" t="n">
         <v>104.1059206119148</v>
@@ -33994,7 +33994,7 @@
         <v>91.55769258865865</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.2038928085884</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R39" t="n">
         <v>29.76918315689862</v>
@@ -34061,16 +34061,16 @@
         <v>59.76217402211368</v>
       </c>
       <c r="M40" t="n">
-        <v>63.01083323121596</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N40" t="n">
-        <v>61.51257645311484</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O40" t="n">
         <v>56.81682045345625</v>
       </c>
       <c r="P40" t="n">
-        <v>48.61660530697077</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q40" t="n">
         <v>33.6596175197315</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.758358534582603</v>
+        <v>0.8961261278506832</v>
       </c>
       <c r="H44" t="n">
-        <v>18.00778934229409</v>
+        <v>9.177451706850812</v>
       </c>
       <c r="I44" t="n">
-        <v>67.78911740449587</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
-        <v>149.2384826745304</v>
+        <v>76.057584943667</v>
       </c>
       <c r="K44" t="n">
-        <v>223.669799443412</v>
+        <v>113.9906039355864</v>
       </c>
       <c r="L44" t="n">
-        <v>277.4821644461444</v>
+        <v>141.4154239207968</v>
       </c>
       <c r="M44" t="n">
-        <v>308.7523730355277</v>
+        <v>157.3519069469614</v>
       </c>
       <c r="N44" t="n">
-        <v>313.7483092219106</v>
+        <v>159.8980253077172</v>
       </c>
       <c r="O44" t="n">
-        <v>296.2636315436548</v>
+        <v>150.9871711239019</v>
       </c>
       <c r="P44" t="n">
-        <v>252.8541552211468</v>
+        <v>128.8640573425882</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.8829402014072</v>
+        <v>96.77154038893555</v>
       </c>
       <c r="R44" t="n">
-        <v>110.4534892979745</v>
+        <v>56.29128287860053</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06859510680111</v>
+        <v>20.42047413839747</v>
       </c>
       <c r="T44" t="n">
-        <v>7.697214485135349</v>
+        <v>3.922792124666368</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1406686827666082</v>
+        <v>0.07169009022805464</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.940804757442004</v>
+        <v>0.4794697485004862</v>
       </c>
       <c r="H45" t="n">
-        <v>9.086193315295144</v>
+        <v>4.630668360517855</v>
       </c>
       <c r="I45" t="n">
-        <v>32.39174274526198</v>
+        <v>16.50805932337201</v>
       </c>
       <c r="J45" t="n">
-        <v>88.88541789499214</v>
+        <v>45.29937654582884</v>
       </c>
       <c r="K45" t="n">
-        <v>151.9193366436064</v>
+        <v>77.42384969536141</v>
       </c>
       <c r="L45" t="n">
-        <v>204.2742961279228</v>
+        <v>104.1059206119148</v>
       </c>
       <c r="M45" t="n">
-        <v>238.3784685851954</v>
+        <v>121.4866989950574</v>
       </c>
       <c r="N45" t="n">
-        <v>244.6876373313745</v>
+        <v>124.7020904225015</v>
       </c>
       <c r="O45" t="n">
-        <v>223.8413845480543</v>
+        <v>114.0780502057275</v>
       </c>
       <c r="P45" t="n">
-        <v>179.6524453048683</v>
+        <v>91.55769258865865</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.0929020201407</v>
+        <v>61.20389280858839</v>
       </c>
       <c r="R45" t="n">
-        <v>58.41242169451321</v>
+        <v>29.76918315689862</v>
       </c>
       <c r="S45" t="n">
-        <v>17.47503573581967</v>
+        <v>8.905940284647183</v>
       </c>
       <c r="T45" t="n">
-        <v>3.792103386356146</v>
+        <v>1.932599556455907</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06189504983171081</v>
+        <v>0.03154406240134779</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.788739104959287</v>
+        <v>0.4019713307100711</v>
       </c>
       <c r="H46" t="n">
-        <v>7.01260767863803</v>
+        <v>3.573890558494998</v>
       </c>
       <c r="I46" t="n">
-        <v>23.71953599277566</v>
+        <v>12.08837419989923</v>
       </c>
       <c r="J46" t="n">
-        <v>55.76385472062159</v>
+        <v>28.41937308120202</v>
       </c>
       <c r="K46" t="n">
-        <v>91.63714328526987</v>
+        <v>46.70176005886098</v>
       </c>
       <c r="L46" t="n">
-        <v>117.2639938409471</v>
+        <v>59.76217402211368</v>
       </c>
       <c r="M46" t="n">
-        <v>123.638439880118</v>
+        <v>63.01083323121595</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6985941252699</v>
+        <v>61.51257645311483</v>
       </c>
       <c r="O46" t="n">
-        <v>111.4846873082455</v>
+        <v>56.81682045345625</v>
       </c>
       <c r="P46" t="n">
-        <v>95.39440956707591</v>
+        <v>48.61660530697076</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.04614450709086</v>
+        <v>33.6596175197315</v>
       </c>
       <c r="R46" t="n">
-        <v>35.46457830116939</v>
+        <v>18.07409274265465</v>
       </c>
       <c r="S46" t="n">
-        <v>13.74557149279048</v>
+        <v>7.005264008829146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.370067084826044</v>
+        <v>1.717513867579394</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04302213299777934</v>
+        <v>0.02192570894782209</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>527.4536661148496</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35017,28 +35017,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>415.010189472638</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
@@ -35272,10 +35272,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K11" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M11" t="n">
-        <v>144.2794790315872</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="O12" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>144.2794790315872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>357.2118800478173</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22600314077712</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="L17" t="n">
-        <v>103.1033814881739</v>
+        <v>296.9011275236368</v>
       </c>
       <c r="M17" t="n">
-        <v>119.9206440475296</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="N17" t="n">
         <v>656.8693341679918</v>
       </c>
       <c r="O17" t="n">
-        <v>113.5962117678779</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P17" t="n">
-        <v>354.3988825658879</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q17" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R17" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3356725733720083</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J18" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K18" t="n">
-        <v>55.02461586202809</v>
+        <v>486.714513506524</v>
       </c>
       <c r="L18" t="n">
-        <v>81.59083389768526</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M18" t="n">
-        <v>98.38991848272943</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N18" t="n">
         <v>103.3590622089598</v>
       </c>
       <c r="O18" t="n">
-        <v>439.7695990971994</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P18" t="n">
         <v>69.78685138383</v>
@@ -35986,7 +35986,7 @@
         <v>530.0377078214968</v>
       </c>
       <c r="R18" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>442.3237049607333</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K20" t="n">
         <v>656.8693341679918</v>
       </c>
       <c r="L20" t="n">
-        <v>321.8211691892103</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="M20" t="n">
-        <v>119.9206440475298</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N20" t="n">
-        <v>122.6184024732713</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O20" t="n">
-        <v>113.596211767878</v>
+        <v>259.2469883030705</v>
       </c>
       <c r="P20" t="n">
-        <v>91.28869553235702</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="Q20" t="n">
-        <v>557.4639439285146</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R20" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>24.02992090106076</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J21" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K21" t="n">
-        <v>55.02461586202817</v>
+        <v>391.2128840242491</v>
       </c>
       <c r="L21" t="n">
-        <v>513.2807315421801</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M21" t="n">
-        <v>98.38991848272957</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N21" t="n">
-        <v>103.35906220896</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O21" t="n">
-        <v>90.90616048350546</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P21" t="n">
-        <v>69.78685138383011</v>
+        <v>656.8693341679918</v>
       </c>
       <c r="Q21" t="n">
-        <v>530.0377078214968</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R21" t="n">
-        <v>6.096263762754514</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>86.49142179247278</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K22" t="n">
-        <v>275.517518852636</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L22" t="n">
-        <v>418.0342157336499</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1479998678331</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N22" t="n">
-        <v>442.8171328935551</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O22" t="n">
-        <v>415.8351322511968</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P22" t="n">
         <v>342.1511628038405</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>442.3237049607333</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K23" t="n">
-        <v>836.7262685573028</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L23" t="n">
         <v>1080.430623536228</v>
       </c>
       <c r="M23" t="n">
-        <v>155.8994218031247</v>
+        <v>1171.782312420758</v>
       </c>
       <c r="N23" t="n">
-        <v>1146.010205597314</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O23" t="n">
-        <v>1004.668635922702</v>
+        <v>113.5962117678778</v>
       </c>
       <c r="P23" t="n">
-        <v>91.28869553235702</v>
+        <v>646.8293765521915</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.64686578433762</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R23" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.02992090106076</v>
+        <v>24.02992090106073</v>
       </c>
       <c r="J24" t="n">
-        <v>24.68826221249556</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K24" t="n">
-        <v>55.02461586202817</v>
+        <v>486.714513506524</v>
       </c>
       <c r="L24" t="n">
-        <v>81.59083389768537</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.139767657729</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N24" t="n">
-        <v>125.4122793184079</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O24" t="n">
-        <v>90.90616048350546</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P24" t="n">
-        <v>69.78685138383011</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.45685451960998</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R24" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>86.49142179247278</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K25" t="n">
-        <v>275.517518852636</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L25" t="n">
-        <v>418.0342157336499</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1479998678331</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N25" t="n">
-        <v>442.8171328935551</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O25" t="n">
-        <v>415.8351322511968</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P25" t="n">
         <v>342.1511628038405</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22600314077711</v>
+        <v>753.9826555982827</v>
       </c>
       <c r="L26" t="n">
-        <v>521.769015710152</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M26" t="n">
-        <v>854.3458633930663</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N26" t="n">
-        <v>854.3458633930663</v>
+        <v>1146.010205597314</v>
       </c>
       <c r="O26" t="n">
-        <v>854.3458633930663</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P26" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.64686578433751</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R26" t="n">
         <v>21.25863298380406</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J27" t="n">
-        <v>319.7412849090522</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K27" t="n">
-        <v>673.8732704714621</v>
+        <v>551.8397592152031</v>
       </c>
       <c r="L27" t="n">
-        <v>279.4922228761439</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M27" t="n">
         <v>98.38991848272941</v>
@@ -36691,13 +36691,13 @@
         <v>90.90616048350532</v>
       </c>
       <c r="P27" t="n">
-        <v>69.78685138383</v>
+        <v>814.9897300012829</v>
       </c>
       <c r="Q27" t="n">
         <v>38.45685451960989</v>
       </c>
       <c r="R27" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>836.7262685573027</v>
       </c>
       <c r="L29" t="n">
-        <v>854.3458633930663</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M29" t="n">
-        <v>119.9206440475296</v>
+        <v>1078.160226285642</v>
       </c>
       <c r="N29" t="n">
         <v>122.6184024732711</v>
       </c>
       <c r="O29" t="n">
-        <v>578.827929912003</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P29" t="n">
         <v>91.28869553235688</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J30" t="n">
         <v>319.7412849090522</v>
       </c>
       <c r="K30" t="n">
-        <v>380.1938061480337</v>
+        <v>510.4087618342127</v>
       </c>
       <c r="L30" t="n">
         <v>81.59083389768524</v>
@@ -36934,7 +36934,7 @@
         <v>530.0377078214968</v>
       </c>
       <c r="R30" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K32" t="n">
-        <v>332.6223845802728</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L32" t="n">
-        <v>854.3458633930663</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M32" t="n">
-        <v>854.3458633930663</v>
+        <v>1171.782312420758</v>
       </c>
       <c r="N32" t="n">
-        <v>854.3458633930663</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O32" t="n">
-        <v>113.5962117678778</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P32" t="n">
-        <v>91.28869553235688</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q32" t="n">
-        <v>60.64686578433751</v>
+        <v>292.4740432175307</v>
       </c>
       <c r="R32" t="n">
         <v>175.035055486583</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J33" t="n">
-        <v>319.7412849090522</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K33" t="n">
-        <v>55.02461586202807</v>
+        <v>551.8397592152031</v>
       </c>
       <c r="L33" t="n">
         <v>81.59083389768524</v>
@@ -37159,19 +37159,19 @@
         <v>98.38991848272941</v>
       </c>
       <c r="N33" t="n">
-        <v>428.5282524949653</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O33" t="n">
         <v>90.90616048350532</v>
       </c>
       <c r="P33" t="n">
-        <v>69.78685138383</v>
+        <v>814.9897300012829</v>
       </c>
       <c r="Q33" t="n">
-        <v>530.0377078214968</v>
+        <v>38.45685451960989</v>
       </c>
       <c r="R33" t="n">
-        <v>112.6169711212452</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>442.3237049607332</v>
+        <v>46.63762545808047</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22600314077711</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L35" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M35" t="n">
-        <v>854.3458633930663</v>
+        <v>1171.782312420758</v>
       </c>
       <c r="N35" t="n">
-        <v>122.6184024732711</v>
+        <v>1146.010205597314</v>
       </c>
       <c r="O35" t="n">
-        <v>205.450401263962</v>
+        <v>538.2482473104988</v>
       </c>
       <c r="P35" t="n">
-        <v>844.2976726536263</v>
+        <v>91.28869553235688</v>
       </c>
       <c r="Q35" t="n">
-        <v>557.4639439285145</v>
+        <v>60.64686578433751</v>
       </c>
       <c r="R35" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J36" t="n">
-        <v>319.7412849090522</v>
+        <v>24.68826221249551</v>
       </c>
       <c r="K36" t="n">
         <v>55.02461586202807</v>
       </c>
       <c r="L36" t="n">
-        <v>153.1379988681248</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M36" t="n">
         <v>98.38991848272941</v>
@@ -37405,7 +37405,7 @@
         <v>814.9897300012829</v>
       </c>
       <c r="Q36" t="n">
-        <v>38.45685451960989</v>
+        <v>428.7512905142947</v>
       </c>
       <c r="R36" t="n">
         <v>112.6169711212452</v>
@@ -37545,28 +37545,28 @@
         <v>442.3237049607332</v>
       </c>
       <c r="K38" t="n">
-        <v>165.5222555735866</v>
+        <v>753.9826555982827</v>
       </c>
       <c r="L38" t="n">
-        <v>854.3458633930663</v>
+        <v>103.1033814881739</v>
       </c>
       <c r="M38" t="n">
         <v>119.9206440475296</v>
       </c>
       <c r="N38" t="n">
-        <v>122.6184024732711</v>
+        <v>1146.010205597314</v>
       </c>
       <c r="O38" t="n">
-        <v>854.3458633930663</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P38" t="n">
-        <v>91.28869553235685</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q38" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R38" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0.3356725733720047</v>
       </c>
       <c r="J39" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K39" t="n">
-        <v>55.02461586202809</v>
+        <v>510.4087618342127</v>
       </c>
       <c r="L39" t="n">
         <v>81.59083389768524</v>
       </c>
       <c r="M39" t="n">
-        <v>98.38991848272943</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N39" t="n">
-        <v>854.3458633930663</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O39" t="n">
-        <v>581.937381270027</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P39" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q39" t="n">
-        <v>38.45685451960991</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R39" t="n">
         <v>6.096263762754479</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.63762545808047</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K41" t="n">
-        <v>352.1769310985517</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L41" t="n">
-        <v>103.1033814881739</v>
+        <v>1080.430623536228</v>
       </c>
       <c r="M41" t="n">
         <v>119.9206440475296</v>
@@ -37794,16 +37794,16 @@
         <v>122.6184024732711</v>
       </c>
       <c r="O41" t="n">
-        <v>753.7043423406686</v>
+        <v>569.4898239130048</v>
       </c>
       <c r="P41" t="n">
-        <v>753.7043423406686</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q41" t="n">
         <v>557.4639439285145</v>
       </c>
       <c r="R41" t="n">
-        <v>175.035055486583</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.02992090106073</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J42" t="n">
-        <v>24.68826221249551</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K42" t="n">
-        <v>55.02461586202807</v>
+        <v>673.8732704714621</v>
       </c>
       <c r="L42" t="n">
-        <v>753.7043423406686</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M42" t="n">
         <v>98.38991848272941</v>
@@ -37873,13 +37873,13 @@
         <v>103.3590622089598</v>
       </c>
       <c r="O42" t="n">
-        <v>637.1164256834613</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P42" t="n">
         <v>69.78685138383</v>
       </c>
       <c r="Q42" t="n">
-        <v>38.45685451960989</v>
+        <v>366.5731991842479</v>
       </c>
       <c r="R42" t="n">
         <v>6.096263762754479</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.24121486053237</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>515.5046026915966</v>
+        <v>442.3237049607332</v>
       </c>
       <c r="K44" t="n">
-        <v>753.7043423406686</v>
+        <v>836.7262685573027</v>
       </c>
       <c r="L44" t="n">
-        <v>239.1701220135215</v>
+        <v>645.2518115265307</v>
       </c>
       <c r="M44" t="n">
-        <v>271.3211101360959</v>
+        <v>119.9206440475296</v>
       </c>
       <c r="N44" t="n">
-        <v>276.4686863874646</v>
+        <v>122.6184024732711</v>
       </c>
       <c r="O44" t="n">
-        <v>258.8726721876307</v>
+        <v>1004.668635922702</v>
       </c>
       <c r="P44" t="n">
-        <v>406.9028130445439</v>
+        <v>844.2976726536263</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.7582655968092</v>
+        <v>557.4639439285145</v>
       </c>
       <c r="R44" t="n">
-        <v>75.42083940317806</v>
+        <v>21.25863298380406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.21935599526198</v>
+        <v>0.3356725733720047</v>
       </c>
       <c r="J45" t="n">
-        <v>68.27430356165881</v>
+        <v>319.7412849090522</v>
       </c>
       <c r="K45" t="n">
-        <v>129.5201028102731</v>
+        <v>510.4087618342132</v>
       </c>
       <c r="L45" t="n">
-        <v>181.7592094136933</v>
+        <v>81.59083389768524</v>
       </c>
       <c r="M45" t="n">
-        <v>215.2816880728675</v>
+        <v>98.38991848272941</v>
       </c>
       <c r="N45" t="n">
-        <v>223.3446091178329</v>
+        <v>103.3590622089598</v>
       </c>
       <c r="O45" t="n">
-        <v>200.6694948258321</v>
+        <v>90.90616048350532</v>
       </c>
       <c r="P45" t="n">
-        <v>157.8816041000396</v>
+        <v>69.78685138383</v>
       </c>
       <c r="Q45" t="n">
-        <v>567.274645698468</v>
+        <v>530.0377078214968</v>
       </c>
       <c r="R45" t="n">
-        <v>34.73950230036907</v>
+        <v>6.096263762754479</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>113.8359034318923</v>
+        <v>86.49142179247275</v>
       </c>
       <c r="K46" t="n">
-        <v>320.4529020790448</v>
+        <v>275.5175188526359</v>
       </c>
       <c r="L46" t="n">
-        <v>475.5360355524832</v>
+        <v>418.0342157336498</v>
       </c>
       <c r="M46" t="n">
-        <v>518.775606516735</v>
+        <v>458.1479998678329</v>
       </c>
       <c r="N46" t="n">
-        <v>502.0031505657101</v>
+        <v>442.817132893555</v>
       </c>
       <c r="O46" t="n">
-        <v>470.5029991059859</v>
+        <v>415.8351322511967</v>
       </c>
       <c r="P46" t="n">
-        <v>388.9289670639456</v>
+        <v>342.1511628038405</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.3291043462443</v>
+        <v>161.942577358885</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
